--- a/AAII_Financials/Quarterly/CSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSCO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>CSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,198 +665,222 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43946</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43855</v>
+      </c>
+      <c r="F7" s="2">
         <v>43764</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43673</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43582</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43491</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43400</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43309</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43218</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43127</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43036</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42945</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42854</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42763</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11983000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>12005000</v>
+      </c>
+      <c r="F8" s="3">
         <v>13159000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>13428000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>12958000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>12446000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>13072000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>12844000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>12463000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>11887000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>12136000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>12133000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>11940000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>11580000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>12352000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4212000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4241000</v>
+      </c>
+      <c r="F9" s="3">
         <v>4695000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>4854000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>4785000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>4673000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>4926000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>4922000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4704000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4389000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4709000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>4587000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4422000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4304000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>4468000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7771000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7764000</v>
+      </c>
+      <c r="F10" s="3">
         <v>8464000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>8574000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>8173000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>7773000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>8146000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>7922000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>7759000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>7498000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>7427000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>7546000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>7518000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>7276000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>7884000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,52 +897,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1546000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1570000</v>
+      </c>
+      <c r="F12" s="3">
         <v>1666000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1753000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1659000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1557000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1608000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1626000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1590000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1549000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1567000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1499000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1507000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1508000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1545000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -961,96 +993,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>176000</v>
+        <v>132000</v>
       </c>
       <c r="E14" s="3">
+        <v>41000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>181000</v>
+      </c>
+      <c r="G14" s="3">
         <v>29000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>19000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>168000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>65000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>42000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>93000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>103000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>161000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>152000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>70000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>133000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>411000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="E15" s="3">
         <v>38000</v>
       </c>
       <c r="F15" s="3">
+        <v>36000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>38000</v>
+      </c>
+      <c r="H15" s="3">
         <v>39000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>39000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>34000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>33000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>67000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>60000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>61000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>58000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>59000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>64000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1064,96 +1114,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>8569000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8625000</v>
+      </c>
+      <c r="F17" s="3">
         <v>9580000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>9738000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>9445000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>9235000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>9267000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>9498000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9329000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>8814000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>9380000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>9099000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>8771000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8687000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>9475000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3414000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3380000</v>
+      </c>
+      <c r="F18" s="3">
         <v>3579000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>3690000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>3513000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3211000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>3805000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>3346000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3134000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3073000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2756000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3034000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>3169000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2893000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2877000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1170,228 +1234,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>313000</v>
+      </c>
+      <c r="F20" s="3">
         <v>286000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>220000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>315000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>358000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>325000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>470000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>355000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>406000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>441000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>367000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>242000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>289000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4022000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4150000</v>
+      </c>
+      <c r="F21" s="3">
         <v>4326000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>4374000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>4309000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>4056000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>4595000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>4332000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>4053000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>4025000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>3763000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>3979000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>3971000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>3731000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>3749000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>159000</v>
+      </c>
+      <c r="F22" s="3">
         <v>179000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>206000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>213000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>226000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>221000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>224000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>236000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>247000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>235000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>221000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>220000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>219000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>197000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3444000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3534000</v>
+      </c>
+      <c r="F23" s="3">
         <v>3686000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3704000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>3615000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3343000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>3909000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3592000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3253000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3232000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2962000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3180000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3191000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2963000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2953000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>670000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>656000</v>
+      </c>
+      <c r="F24" s="3">
         <v>760000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>684000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>571000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>463000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>360000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>489000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>562000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>910000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>568000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>756000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>676000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>615000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>631000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1434,96 +1530,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2774000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2878000</v>
+      </c>
+      <c r="F26" s="3">
         <v>2926000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>3020000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>3044000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2880000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>3549000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>3103000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2691000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2322000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2394000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2424000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2515000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2348000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2774000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2878000</v>
+      </c>
+      <c r="F27" s="3">
         <v>2926000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3020000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3044000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2880000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3549000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3103000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2691000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2322000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2394000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2424000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2515000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2348000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1566,40 +1680,46 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="3">
         <v>-814000</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-58000</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>700000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-11100000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1610,8 +1730,14 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1654,8 +1780,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1698,96 +1830,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-313000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-286000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-220000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-315000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-358000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-325000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-470000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-355000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-406000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-441000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-367000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-242000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-289000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-273000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2774000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2878000</v>
+      </c>
+      <c r="F33" s="3">
         <v>2926000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2206000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3044000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2822000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>3549000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3803000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2691000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-8778000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2394000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2424000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2515000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2348000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1830,101 +1980,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2774000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2878000</v>
+      </c>
+      <c r="F35" s="3">
         <v>2926000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2206000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3044000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2822000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>3549000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3803000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2691000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-8778000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2394000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2424000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2515000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2348000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43946</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43855</v>
+      </c>
+      <c r="F38" s="2">
         <v>43764</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43673</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43582</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43491</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43400</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43309</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43218</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43127</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43036</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42945</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42854</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42763</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1941,8 +2109,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1959,404 +2129,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10367000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>8475000</v>
+      </c>
+      <c r="F41" s="3">
         <v>8587000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>11750000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>10251000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>9835000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>8410000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>8934000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6719000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>17624000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>11043000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>11708000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>8116000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>10898000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>8583000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>18208000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>18587000</v>
+      </c>
+      <c r="F42" s="3">
         <v>19448000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>21663000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>24392000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>30548000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>34183000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>37614000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>47712000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>56059000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>60545000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>58784000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>59858000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>60947000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>62385000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10372000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>9157000</v>
+      </c>
+      <c r="F43" s="3">
         <v>9904000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>10586000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>8824000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>8802000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>9387000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>10503000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>9142000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>8888000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>9244000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>10002000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>9274000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>8954000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>9346000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1212000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1353000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1344000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1383000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1513000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1701000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1572000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1846000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1900000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1896000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1693000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1616000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1366000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1264000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1176000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1148000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2481000</v>
+      </c>
+      <c r="F45" s="3">
         <v>2433000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2373000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2331000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2231000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2134000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2940000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1668000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1583000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1555000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1593000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1348000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1329000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1651000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>41307000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>40053000</v>
+      </c>
+      <c r="F46" s="3">
         <v>41716000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>47755000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>47311000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>53117000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>55686000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>61837000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>67141000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>86050000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>84080000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>83703000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>79962000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>83392000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>83141000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6024000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>5973000</v>
+      </c>
+      <c r="F47" s="3">
         <v>6048000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>6158000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>6112000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>5813000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>5884000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>5978000</v>
       </c>
       <c r="J47" s="3">
         <v>5884000</v>
       </c>
       <c r="K47" s="3">
+        <v>5978000</v>
+      </c>
+      <c r="L47" s="3">
+        <v>5884000</v>
+      </c>
+      <c r="M47" s="3">
         <v>5895000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>5823000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>5721000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>5518000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>5671000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>5775000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3465000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3621000</v>
+      </c>
+      <c r="F48" s="3">
         <v>3769000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2789000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2834000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2931000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2956000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3006000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3082000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3113000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3202000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3322000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3395000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3422000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3499000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>35197000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>35518000</v>
+      </c>
+      <c r="F49" s="3">
         <v>35685000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>35730000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>35942000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>35563000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>36102000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>34258000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>34335000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>32865000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>32910000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>32305000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>32220000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>28939000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>29120000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2399,8 +2625,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2443,52 +2675,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5401000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5261000</v>
+      </c>
+      <c r="F52" s="3">
         <v>5274000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>5361000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>5088000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>5038000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>4801000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3705000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3566000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3587000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>4507000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>4767000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>4855000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>4824000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>4752000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2531,52 +2775,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>91394000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>90426000</v>
+      </c>
+      <c r="F54" s="3">
         <v>92492000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>97793000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>97287000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>102462000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>105429000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>108784000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>114008000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>131510000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>130522000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>129818000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>125950000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>126248000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>126287000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2593,8 +2849,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2611,272 +2869,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2393000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1935000</v>
+      </c>
+      <c r="F57" s="3">
         <v>2016000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2059000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2022000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1655000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1805000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1904000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1552000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1060000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1155000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1385000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1219000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>957000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>996000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4506000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1499000</v>
+      </c>
+      <c r="F58" s="3">
         <v>4000000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>10191000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>7777000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>9737000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>7241000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>5238000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>7736000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>13741000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>10239000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>7992000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4248000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4451000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4155000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19038000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>18654000</v>
+      </c>
+      <c r="F59" s="3">
         <v>18581000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>19462000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>18114000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>18087000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>17368000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>19893000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>19354000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>20563000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>17890000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>18206000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>17251000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>17300000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>18066000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25937000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>22088000</v>
+      </c>
+      <c r="F60" s="3">
         <v>24597000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>31712000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>27913000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>29479000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>26414000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>27035000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>28642000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>35364000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>29284000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>27583000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>22718000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>22708000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>23217000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11578000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>14494000</v>
+      </c>
+      <c r="F61" s="3">
         <v>14497000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>14475000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>15921000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>15893000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>18323000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>20331000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>20336000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>25625000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>25684000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>25725000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>28222000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>30471000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>30634000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18171000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>18311000</v>
+      </c>
+      <c r="F62" s="3">
         <v>18975000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>18035000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>16649000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>16301000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>16844000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>18214000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>18369000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>18539000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>10004000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>10373000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>9628000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>9251000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>9023000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2919,8 +3215,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2963,8 +3265,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3007,52 +3315,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>55686000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>54893000</v>
+      </c>
+      <c r="F66" s="3">
         <v>58069000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>64222000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>60483000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>61673000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>61581000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>65580000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>67347000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>79528000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>64972000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>63681000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>60568000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>62437000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>62881000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3069,8 +3389,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3113,8 +3435,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3157,8 +3485,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3201,8 +3535,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3245,52 +3585,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3874000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4384000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-5083000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-5903000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2877000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>538000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>3169000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1233000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>3709000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>7364000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>20647000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>20838000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>20721000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>20027000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>19694000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3333,8 +3685,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3377,8 +3735,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3421,52 +3785,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>35708000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>35533000</v>
+      </c>
+      <c r="F76" s="3">
         <v>34423000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>33571000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>36804000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>40789000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>43848000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>43204000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>46661000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>51982000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>65550000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>66137000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>65382000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>63811000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>63406000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3509,101 +3885,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43946</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43855</v>
+      </c>
+      <c r="F80" s="2">
         <v>43764</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43673</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43582</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43491</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43400</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43309</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43218</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43127</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43036</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42945</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42854</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42763</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2774000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2878000</v>
+      </c>
+      <c r="F81" s="3">
         <v>2926000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2206000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3044000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2822000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>3549000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3803000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2691000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-8778000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2394000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2424000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2515000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2348000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3620,52 +4014,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>446000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>457000</v>
+      </c>
+      <c r="F83" s="3">
         <v>461000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>464000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>481000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>487000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>465000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>516000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>564000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>546000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>566000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>578000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>560000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>549000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3708,8 +4110,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3752,8 +4160,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3796,8 +4210,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3840,8 +4260,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3884,52 +4310,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4237000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3800000</v>
+      </c>
+      <c r="F89" s="3">
         <v>3587000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>3942000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>4329000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>3797000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>3763000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>4100000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2416000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4070000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3080000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>4001000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>3373000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>3772000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2730000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3946,52 +4384,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-189000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-202000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-208000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-228000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-261000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-212000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-214000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-241000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-211000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-168000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-208000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-230000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-251000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-275000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4034,8 +4480,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4078,52 +4530,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>843000</v>
+      </c>
+      <c r="F94" s="3">
         <v>1922000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>2689000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>5606000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>3867000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>2675000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>8069000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>5760000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>3990000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2495000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>695000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1710000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>418000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-5396000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4140,52 +4604,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1519000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1486000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
+        <v>-1486000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1490000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-1519000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-1470000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-1500000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-1535000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1572000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-1425000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-1436000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-1448000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-1451000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-1304000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-1308000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4228,8 +4700,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4272,8 +4750,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4316,52 +4800,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2602000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-4757000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-8668000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-5132000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-9541000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-6271000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-6945000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-9954000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-19081000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1479000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1250000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1104000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-4445000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1875000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>3618000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4404,48 +4900,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1871000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-114000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3159000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1499000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>394000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1393000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-507000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2215000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-10905000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>6581000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-665000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>3592000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2782000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>2315000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>952000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>CSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,246 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44128</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44037</v>
+      </c>
+      <c r="F7" s="2">
         <v>43946</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43855</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43764</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43673</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43582</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43491</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43400</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43309</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43218</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43127</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43036</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42945</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42854</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42763</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11929000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>12154000</v>
+      </c>
+      <c r="F8" s="3">
         <v>11983000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>12005000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>13159000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>13428000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>12958000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>12446000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>13072000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>12844000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>12463000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>11887000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>12136000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>12133000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>11940000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>11580000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>12352000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4348000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4470000</v>
+      </c>
+      <c r="F9" s="3">
         <v>4212000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>4241000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>4695000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>4854000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>4785000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>4673000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4926000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4922000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4704000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>4389000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4709000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4587000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>4422000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>4304000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4468000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7581000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7684000</v>
+      </c>
+      <c r="F10" s="3">
         <v>7771000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>7764000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>8464000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>8574000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>8173000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>7773000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>8146000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>7922000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>7759000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>7498000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>7427000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>7546000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>7518000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>7276000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>7884000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,58 +923,66 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1612000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1565000</v>
+      </c>
+      <c r="F12" s="3">
         <v>1546000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1570000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1666000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1753000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1659000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1557000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1608000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1626000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1590000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1549000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1567000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1499000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1507000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1508000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1545000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -999,108 +1031,126 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>595000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>128000</v>
+      </c>
+      <c r="F14" s="3">
         <v>132000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>41000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>181000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>29000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>19000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>168000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>65000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>42000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>93000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>103000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>161000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>152000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>70000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>133000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>411000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F15" s="3">
         <v>34000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>38000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>36000</v>
       </c>
       <c r="G15" s="3">
         <v>38000</v>
       </c>
       <c r="H15" s="3">
+        <v>36000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>38000</v>
+      </c>
+      <c r="J15" s="3">
         <v>39000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>39000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>34000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>33000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>67000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>60000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>61000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>58000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>59000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>64000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1116,108 +1166,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>9359000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8907000</v>
+      </c>
+      <c r="F17" s="3">
         <v>8569000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>8625000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>9580000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>9738000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>9445000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>9235000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9267000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>9498000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>9329000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>8814000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>9380000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>9099000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>8771000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>8687000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>9475000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2570000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3247000</v>
+      </c>
+      <c r="F18" s="3">
         <v>3414000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>3380000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>3579000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3690000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>3513000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>3211000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3805000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3346000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>3134000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3073000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2756000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3034000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>3169000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2893000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>2877000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1236,258 +1300,290 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>223000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>178000</v>
+      </c>
+      <c r="F20" s="3">
         <v>162000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>313000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>286000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>220000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>315000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>358000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>325000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>470000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>355000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>406000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>441000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>367000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>242000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>289000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>3244000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3869000</v>
+      </c>
+      <c r="F21" s="3">
         <v>4022000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>4150000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>4326000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>4374000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>4309000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>4056000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>4595000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>4332000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>4053000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>4025000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>3763000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>3979000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>3971000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>3731000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>3749000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>119000</v>
+      </c>
+      <c r="F22" s="3">
         <v>132000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>159000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>179000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>206000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>213000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>226000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>221000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>224000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>236000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>247000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>235000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>221000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>220000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>219000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>197000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2681000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3306000</v>
+      </c>
+      <c r="F23" s="3">
         <v>3444000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3534000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>3686000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3704000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>3615000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3343000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3909000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3592000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>3253000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3232000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2962000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>3180000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>3191000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2963000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>2953000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>507000</v>
+      </c>
+      <c r="E24" s="3">
         <v>670000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>670000</v>
+      </c>
+      <c r="G24" s="3">
         <v>656000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>760000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>684000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>571000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>463000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>360000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>489000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>562000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>910000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>568000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>756000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>676000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>615000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>631000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1536,108 +1632,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2174000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2636000</v>
+      </c>
+      <c r="F26" s="3">
         <v>2774000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2878000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2926000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>3020000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>3044000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2880000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3549000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3103000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2691000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2322000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2394000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2424000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>2515000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>2348000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2174000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2636000</v>
+      </c>
+      <c r="F27" s="3">
         <v>2774000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2878000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2926000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>3020000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3044000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2880000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>3549000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3103000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2691000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2322000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2394000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2424000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>2515000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>2348000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1686,8 +1800,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1700,32 +1820,32 @@
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="3">
         <v>-814000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-58000</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>700000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-11100000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -1736,8 +1856,14 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1786,8 +1912,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1836,108 +1968,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-223000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-178000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-162000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-313000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-286000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-220000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-315000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-358000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-325000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-470000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-355000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-406000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-441000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-367000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-242000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-289000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-273000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2174000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2636000</v>
+      </c>
+      <c r="F33" s="3">
         <v>2774000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2878000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2926000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2206000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>3044000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2822000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>3549000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>3803000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2691000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-8778000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2394000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2424000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>2515000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>2348000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1986,113 +2136,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2174000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2636000</v>
+      </c>
+      <c r="F35" s="3">
         <v>2774000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2878000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2926000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2206000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>3044000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2822000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>3549000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>3803000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2691000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-8778000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2394000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2424000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>2515000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>2348000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44128</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44037</v>
+      </c>
+      <c r="F38" s="2">
         <v>43946</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43855</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43764</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43673</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43582</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43491</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43400</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43309</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43218</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43127</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43036</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42945</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42854</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42763</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2111,8 +2279,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2131,458 +2301,514 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10825000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>11809000</v>
+      </c>
+      <c r="F41" s="3">
         <v>10367000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>8475000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>8587000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>11750000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>10251000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>9835000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8410000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>8934000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6719000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>17624000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>11043000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>11708000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>8116000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>10898000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>8583000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>19190000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>17610000</v>
+      </c>
+      <c r="F42" s="3">
         <v>18208000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>18587000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>19448000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>21663000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>24392000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>30548000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>34183000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>37614000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>47712000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>56059000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>60545000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>58784000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>59858000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>60947000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>62385000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10285000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>11723000</v>
+      </c>
+      <c r="F43" s="3">
         <v>10372000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>9157000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>9904000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>10586000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>8824000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>8802000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>9387000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>10503000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>9142000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>8888000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>9244000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>10002000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>9274000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>8954000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>9346000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1303000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1282000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1212000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1353000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1344000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1383000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1513000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1701000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1572000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1846000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1900000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1896000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1693000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1616000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1366000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1264000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1176000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1386000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1149000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1148000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2481000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2433000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2373000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2331000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2231000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2134000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2940000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1668000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1583000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1555000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1593000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1348000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1329000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1651000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>42989000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>43573000</v>
+      </c>
+      <c r="F46" s="3">
         <v>41307000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>40053000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>41716000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>47755000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>47311000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>53117000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>55686000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>61837000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>67141000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>86050000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>84080000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>83703000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>79962000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>83392000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>83141000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5516000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>6992000</v>
+      </c>
+      <c r="F47" s="3">
         <v>6024000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>5973000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>6048000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>6158000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>6112000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>5813000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>5884000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>5978000</v>
       </c>
       <c r="L47" s="3">
         <v>5884000</v>
       </c>
       <c r="M47" s="3">
+        <v>5978000</v>
+      </c>
+      <c r="N47" s="3">
+        <v>5884000</v>
+      </c>
+      <c r="O47" s="3">
         <v>5895000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>5823000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>5721000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>5518000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>5671000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>5775000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3365000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3374000</v>
+      </c>
+      <c r="F48" s="3">
         <v>3465000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3621000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3769000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2789000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2834000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2931000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2956000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3006000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3082000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3113000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3202000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3322000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3395000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3422000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3499000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>36116000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>35382000</v>
+      </c>
+      <c r="F49" s="3">
         <v>35197000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>35518000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>35685000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>35730000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>35942000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>35563000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>36102000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>34258000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>34335000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>32865000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>32910000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>32305000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>32220000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>28939000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>29120000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2631,8 +2857,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2681,58 +2913,70 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7017000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5532000</v>
+      </c>
+      <c r="F52" s="3">
         <v>5401000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>5261000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>5274000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>5361000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>5088000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>5038000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4801000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3705000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>3566000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3587000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>4507000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>4767000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>4855000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>4824000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>4752000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2781,58 +3025,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>95003000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>94853000</v>
+      </c>
+      <c r="F54" s="3">
         <v>91394000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>90426000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>92492000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>97793000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>97287000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>102462000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>105429000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>108784000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>114008000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>131510000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>130522000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>129818000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>125950000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>126248000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>126287000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2851,8 +3107,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2871,308 +3129,346 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2294000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2218000</v>
+      </c>
+      <c r="F57" s="3">
         <v>2393000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1935000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2016000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2059000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2022000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1655000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1805000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1904000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1552000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1060000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1155000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1385000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1219000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>957000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>996000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5002000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3005000</v>
+      </c>
+      <c r="F58" s="3">
         <v>4506000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1499000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>4000000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>10191000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>7777000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>9737000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>7241000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5238000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>7736000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>13741000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>10239000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>7992000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4248000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>4451000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>4155000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19695000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>20108000</v>
+      </c>
+      <c r="F59" s="3">
         <v>19038000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>18654000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>18581000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>19462000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>18114000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>18087000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>17368000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>19893000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>19354000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>20563000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>17890000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>18206000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>17251000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>17300000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>18066000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>26991000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>25331000</v>
+      </c>
+      <c r="F60" s="3">
         <v>25937000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>22088000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>24597000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>31712000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>27913000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>29479000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>26414000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>27035000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>28642000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>35364000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>29284000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>27583000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>22718000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>22708000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>23217000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9564000</v>
+      </c>
+      <c r="E61" s="3">
         <v>11578000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>11578000</v>
+      </c>
+      <c r="G61" s="3">
         <v>14494000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>14497000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>14475000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>15921000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>15893000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>18323000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>20331000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>20336000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>25625000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>25684000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>25725000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>28222000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>30471000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>30634000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20291000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>20024000</v>
+      </c>
+      <c r="F62" s="3">
         <v>18171000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>18311000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>18975000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>18035000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>16649000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>16301000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>16844000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>18214000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>18369000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>18539000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>10004000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>10373000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>9628000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>9251000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>9023000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3221,8 +3517,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3271,8 +3573,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3321,58 +3629,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>56846000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>56933000</v>
+      </c>
+      <c r="F66" s="3">
         <v>55686000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>54893000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>58069000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>64222000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>60483000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>61673000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>61581000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>65580000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>67347000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>79528000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>64972000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>63681000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>60568000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>62437000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>62881000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3391,8 +3711,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3441,8 +3763,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3491,8 +3819,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3541,8 +3875,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3591,58 +3931,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2756000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2763000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3874000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-4384000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-5083000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-5903000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2877000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>538000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>3169000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1233000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>3709000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>7364000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>20647000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>20838000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>20721000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>20027000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>19694000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3691,8 +4043,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3741,8 +4099,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3791,58 +4155,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>38157000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>37920000</v>
+      </c>
+      <c r="F76" s="3">
         <v>35708000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>35533000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>34423000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>33571000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>36804000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>40789000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>43848000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>43204000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>46661000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>51982000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>65550000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>66137000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>65382000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>63811000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>63406000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3891,113 +4267,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44128</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44037</v>
+      </c>
+      <c r="F80" s="2">
         <v>43946</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43855</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43764</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43673</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43582</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43491</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43400</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43309</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43218</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43127</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43036</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42945</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42854</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42763</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2174000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2636000</v>
+      </c>
+      <c r="F81" s="3">
         <v>2774000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2878000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2926000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2206000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>3044000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2822000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>3549000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>3803000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2691000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-8778000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2394000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2424000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>2515000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>2348000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4016,58 +4410,66 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>451000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>444000</v>
+      </c>
+      <c r="F83" s="3">
         <v>446000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>457000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>461000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>464000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>481000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>487000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>465000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>516000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>564000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>546000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>566000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>578000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>560000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>549000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4116,8 +4518,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4166,8 +4574,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4216,8 +4630,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4266,8 +4686,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4316,58 +4742,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4096000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3802000</v>
+      </c>
+      <c r="F89" s="3">
         <v>4237000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>3800000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>3587000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>3942000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>4329000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>3797000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3763000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4100000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2416000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>4070000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>3080000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>4001000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>3373000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>3772000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>2730000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4386,8 +4824,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4395,49 +4835,55 @@
         <v>-171000</v>
       </c>
       <c r="E91" s="3">
+        <v>-208000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-189000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-202000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-208000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-228000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-261000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-212000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-214000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-241000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-211000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-168000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-208000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-230000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-251000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-275000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4486,8 +4932,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4536,58 +4988,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2710000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>499000</v>
+      </c>
+      <c r="F94" s="3">
         <v>236000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>843000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>1922000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>2689000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>5606000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>3867000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>2675000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>8069000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>5760000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>3990000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-2495000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>695000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1710000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>418000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-5396000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4606,58 +5070,66 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1520000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-1525000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1519000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-1486000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-1486000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-1490000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-1519000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-1470000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1500000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-1535000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-1572000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-1425000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-1436000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-1448000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-1451000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-1304000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-1308000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4706,8 +5178,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4756,8 +5234,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4806,58 +5290,70 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2373000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2859000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2602000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-4757000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-8668000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-5132000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-9541000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-6271000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-6945000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-9954000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-19081000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1479000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1250000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1104000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-4445000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1875000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>3618000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4906,54 +5402,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-987000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1442000</v>
+      </c>
+      <c r="F102" s="3">
         <v>1871000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-114000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3159000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1499000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>394000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1393000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-507000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2215000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-10905000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>6581000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-665000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>3592000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2782000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>2315000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>952000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>CSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,246 +665,258 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44219</v>
+      </c>
+      <c r="E7" s="2">
         <v>44128</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44037</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43946</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43855</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43764</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43673</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43582</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43491</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43400</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43309</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43218</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43127</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43036</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42945</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42854</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42763</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11960000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11929000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12154000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11983000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12005000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13159000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13428000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12958000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12446000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13072000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12844000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12463000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11887000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12136000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12133000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11940000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11580000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12352000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4176000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4348000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4470000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4212000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4241000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4695000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4854000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4785000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4673000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4926000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4922000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4704000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4389000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4709000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4587000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4422000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4304000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4468000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7784000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7581000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7684000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7771000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7764000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8464000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8574000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8173000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7773000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8146000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7922000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7759000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7498000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7427000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7546000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7518000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7276000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7884000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -925,64 +937,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1527000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1612000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1565000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1546000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1570000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1666000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1753000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1659000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1557000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1608000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1626000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1590000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1549000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1567000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1499000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1507000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1508000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1545000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1037,120 +1053,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E14" s="3">
         <v>595000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>128000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>132000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>41000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>181000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>29000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>19000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>168000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>65000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>42000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>93000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>103000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>161000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>152000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>70000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>133000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>411000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E15" s="3">
         <v>36000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>33000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>34000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>38000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>36000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>38000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>39000</v>
       </c>
       <c r="K15" s="3">
         <v>39000</v>
       </c>
       <c r="L15" s="3">
+        <v>39000</v>
+      </c>
+      <c r="M15" s="3">
         <v>34000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>33000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>67000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>60000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>61000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>58000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>59000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>64000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1168,120 +1193,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>8737000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9359000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8907000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8569000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8625000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9580000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9738000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9445000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9235000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9267000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9498000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9329000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8814000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9380000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9099000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8771000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8687000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9475000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3223000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2570000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3247000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3414000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3380000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3579000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3690000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3513000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3211000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3805000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3346000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3134000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3073000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2756000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3034000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3169000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2893000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2877000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1302,288 +1334,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E20" s="3">
         <v>223000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>178000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>162000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>313000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>286000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>220000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>315000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>358000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>325000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>470000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>355000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>406000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>441000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>367000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>242000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>289000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>3804000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3244000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3869000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4022000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4150000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4326000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4374000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4309000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4056000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4595000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4332000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4053000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4025000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3763000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3979000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3971000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3731000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3749000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E22" s="3">
         <v>112000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>119000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>132000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>159000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>179000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>206000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>213000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>226000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>221000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>224000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>236000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>247000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>235000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>221000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>220000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>219000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>197000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3255000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2681000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3306000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3444000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3534000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3686000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3704000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3615000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3343000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3909000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3592000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3253000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3232000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2962000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3180000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3191000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2963000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2953000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>710000</v>
+      </c>
+      <c r="E24" s="3">
         <v>507000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>670000</v>
       </c>
       <c r="F24" s="3">
         <v>670000</v>
       </c>
       <c r="G24" s="3">
+        <v>670000</v>
+      </c>
+      <c r="H24" s="3">
         <v>656000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>760000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>684000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>571000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>463000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>360000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>489000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>562000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>910000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>568000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>756000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>676000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>615000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>631000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1638,120 +1686,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2545000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2174000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2636000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2774000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2878000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2926000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3020000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3044000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2880000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3549000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3103000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2691000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2322000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2394000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2424000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2515000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2348000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2545000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2174000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2636000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2774000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2878000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2926000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3020000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3044000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2880000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3549000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3103000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2691000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2322000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2394000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2424000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2515000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2348000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1806,8 +1863,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1826,29 +1886,29 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="3">
         <v>-814000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-58000</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>700000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-11100000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -1862,8 +1922,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1918,8 +1981,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1974,120 +2040,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-223000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-178000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-162000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-313000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-286000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-220000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-315000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-358000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-325000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-470000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-355000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-406000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-441000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-367000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-242000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-289000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-273000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2545000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2174000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2636000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2774000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2878000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2926000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2206000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3044000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2822000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3549000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3803000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2691000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8778000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2394000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2424000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2515000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2348000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2142,125 +2217,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2545000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2174000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2636000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2774000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2878000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2926000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2206000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3044000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2822000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3549000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3803000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2691000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8778000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2394000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2424000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2515000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2348000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44219</v>
+      </c>
+      <c r="E38" s="2">
         <v>44128</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44037</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43946</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43855</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43764</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43673</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43582</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43491</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43400</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43309</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43218</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43127</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43036</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42945</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42854</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42763</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2281,8 +2365,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2303,512 +2388,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11800000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10825000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11809000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10367000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8475000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8587000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11750000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10251000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9835000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8410000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8934000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6719000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17624000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11043000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11708000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8116000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10898000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8583000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>18795000</v>
+      </c>
+      <c r="E42" s="3">
         <v>19190000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>17610000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>18208000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>18587000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>19448000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>21663000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>24392000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>30548000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>34183000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>37614000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>47712000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>56059000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>60545000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>58784000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>59858000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>60947000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>62385000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10534000</v>
+      </c>
+      <c r="E43" s="3">
         <v>10285000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11723000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10372000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9157000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9904000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10586000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8824000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8802000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9387000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10503000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9142000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8888000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9244000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10002000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9274000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8954000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9346000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1436000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1303000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1282000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1212000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1353000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1344000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1383000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1513000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1701000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1572000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1846000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1900000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1896000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1693000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1616000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1366000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1264000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1176000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1346000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1386000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1149000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1148000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2481000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2433000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2373000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2331000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2231000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2134000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2940000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1668000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1583000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1555000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1593000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1348000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1329000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1651000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>43911000</v>
+      </c>
+      <c r="E46" s="3">
         <v>42989000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>43573000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>41307000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>40053000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>41716000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>47755000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>47311000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>53117000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>55686000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>61837000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>67141000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>86050000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>84080000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>83703000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>79962000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>83392000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>83141000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5100000</v>
+      </c>
+      <c r="E47" s="3">
         <v>5516000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6992000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6024000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5973000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6048000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6158000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6112000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5813000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5884000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5978000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5884000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5895000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5823000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5721000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5518000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5671000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5775000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3360000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3365000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3374000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3465000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3621000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3769000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2789000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2834000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2931000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2956000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3006000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3082000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3113000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3202000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3322000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3395000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3422000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3499000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>36195000</v>
+      </c>
+      <c r="E49" s="3">
         <v>36116000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>35382000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>35197000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>35518000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>35685000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>35730000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>35942000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>35563000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>36102000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>34258000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>34335000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>32865000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>32910000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>32305000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>32220000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>28939000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>29120000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2863,8 +2976,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2919,64 +3035,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7035000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7017000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5532000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5401000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5261000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5274000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5361000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5088000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5038000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4801000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3705000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3566000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3587000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4507000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4767000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4855000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4824000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4752000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3031,64 +3153,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>95601000</v>
+      </c>
+      <c r="E54" s="3">
         <v>95003000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>94853000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>91394000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>90426000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>92492000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>97793000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>97287000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>102462000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>105429000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>108784000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>114008000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>131510000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>130522000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>129818000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>125950000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>126248000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>126287000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3109,8 +3237,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3131,344 +3260,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1867000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2294000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2218000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2393000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1935000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2016000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2059000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2022000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1655000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1805000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1904000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1552000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1060000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1155000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1385000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1219000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>957000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>996000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5002000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3005000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4506000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1499000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4000000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10191000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7777000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9737000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7241000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5238000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7736000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13741000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10239000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7992000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4248000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4451000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4155000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20401000</v>
+      </c>
+      <c r="E59" s="3">
         <v>19695000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20108000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19038000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>18654000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>18581000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19462000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18114000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18087000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17368000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19893000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19354000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>20563000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17890000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>18206000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17251000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17300000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>18066000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27268000</v>
+      </c>
+      <c r="E60" s="3">
         <v>26991000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>25331000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>25937000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22088000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>24597000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>31712000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>27913000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29479000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26414000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>27035000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>28642000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>35364000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>29284000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>27583000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>22718000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>22708000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>23217000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9554000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9564000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>11578000</v>
       </c>
       <c r="F61" s="3">
         <v>11578000</v>
       </c>
       <c r="G61" s="3">
+        <v>11578000</v>
+      </c>
+      <c r="H61" s="3">
         <v>14494000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14497000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>14475000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>15921000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15893000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18323000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20331000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20336000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>25625000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>25684000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>25725000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>28222000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>30471000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>30634000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19658000</v>
+      </c>
+      <c r="E62" s="3">
         <v>20291000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20024000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18171000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18311000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18975000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18035000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16649000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16301000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16844000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18214000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18369000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18539000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10004000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10373000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9628000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9251000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9023000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3523,8 +3671,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3579,8 +3730,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3635,64 +3789,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>56480000</v>
+      </c>
+      <c r="E66" s="3">
         <v>56846000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>56933000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>55686000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>54893000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>58069000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>64222000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>60483000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>61673000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>61581000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>65580000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>67347000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>79528000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>64972000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>63681000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>60568000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>62437000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>62881000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3713,8 +3873,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3769,8 +3930,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3825,8 +3989,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3881,8 +4048,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3937,64 +4107,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2351000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2756000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2763000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3874000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4384000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5083000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5903000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2877000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>538000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3169000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1233000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3709000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7364000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20647000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20838000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20721000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20027000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19694000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4049,8 +4225,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4105,8 +4284,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4161,64 +4343,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>39121000</v>
+      </c>
+      <c r="E76" s="3">
         <v>38157000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>37920000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>35708000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>35533000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>34423000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>33571000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>36804000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>40789000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>43848000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>43204000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>46661000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>51982000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>65550000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>66137000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>65382000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>63811000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>63406000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4273,125 +4461,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44219</v>
+      </c>
+      <c r="E80" s="2">
         <v>44128</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44037</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43946</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43855</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43764</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43673</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43582</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43491</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43400</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43309</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43218</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43127</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43036</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42945</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42854</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42763</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2545000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2174000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2636000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2774000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2878000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2926000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2206000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3044000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2822000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3549000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3803000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2691000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8778000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2394000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2424000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2515000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2348000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4412,64 +4609,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>436000</v>
+      </c>
+      <c r="E83" s="3">
         <v>451000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>444000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>446000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>457000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>461000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>464000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>481000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>487000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>465000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>516000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>564000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>546000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>566000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>578000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>560000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>549000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4524,8 +4725,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4580,8 +4784,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4636,8 +4843,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4692,8 +4902,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4748,64 +4961,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2974000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4096000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3802000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4237000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3800000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3587000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3942000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4329000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3797000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3763000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4100000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2416000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4070000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3080000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4001000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3373000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3772000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2730000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4826,64 +5045,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-187000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-171000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-208000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-171000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-189000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-202000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-208000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-228000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-261000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-212000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-214000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-241000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-211000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-168000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-208000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-230000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-251000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-275000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4938,8 +5161,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4994,64 +5220,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2710000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>499000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>236000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>843000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1922000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2689000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>5606000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3867000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2675000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>8069000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>5760000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3990000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2495000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>695000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1710000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>418000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5396000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5072,64 +5304,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1521000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1520000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1525000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1519000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-1486000</v>
       </c>
       <c r="H96" s="3">
         <v>-1486000</v>
       </c>
       <c r="I96" s="3">
+        <v>-1486000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1490000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1519000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1470000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1500000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1535000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1572000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1425000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1436000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1448000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1451000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1304000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1308000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5184,8 +5420,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5240,8 +5479,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5296,64 +5538,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2178000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2859000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2602000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4757000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8668000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5132000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-9541000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6271000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6945000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-9954000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-19081000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1479000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1250000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1104000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4445000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1875000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3618000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5408,60 +5656,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>978000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-987000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1442000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1871000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-114000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3159000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1499000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>394000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1393000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-507000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2215000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-10905000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6581000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-665000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3592000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2782000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2315000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>952000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>CSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,270 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E7" s="2">
         <v>44219</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44128</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44037</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43946</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43855</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43764</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43673</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43582</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43491</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43400</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43309</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43218</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43127</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43036</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42945</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42854</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42763</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12803000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11960000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11929000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12154000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11983000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12005000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13159000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13428000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12958000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12446000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13072000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12844000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12463000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11887000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12136000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12133000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11940000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11580000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12352000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4618000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4176000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4348000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4470000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4212000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4241000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4695000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4854000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4785000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4673000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4926000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4922000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4704000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4389000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4709000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4587000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4422000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4304000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4468000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8185000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7784000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7581000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7684000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7771000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7764000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8464000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8574000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8173000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7773000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8146000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7922000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7759000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7498000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7427000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7546000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7518000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7276000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7884000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,67 +950,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1697000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1527000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1612000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1565000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1546000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1570000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1666000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1753000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1659000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1557000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1608000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1626000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1590000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1549000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1567000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1499000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1507000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1508000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1545000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1056,126 +1072,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E14" s="3">
         <v>230000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>595000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>128000</v>
       </c>
-      <c r="G14" s="3">
-        <v>132000</v>
-      </c>
       <c r="H14" s="3">
+        <v>127000</v>
+      </c>
+      <c r="I14" s="3">
         <v>41000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>181000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>29000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>19000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>168000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>65000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>42000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>93000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>103000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>161000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>152000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>70000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>133000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>411000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E15" s="3">
         <v>39000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>36000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>33000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>34000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>38000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>36000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>38000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>39000</v>
       </c>
       <c r="L15" s="3">
         <v>39000</v>
       </c>
       <c r="M15" s="3">
+        <v>39000</v>
+      </c>
+      <c r="N15" s="3">
         <v>34000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>33000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>67000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>60000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>61000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>58000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>59000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>64000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1194,126 +1219,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>9338000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8737000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9359000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8907000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8569000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8625000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9580000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9738000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9445000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9235000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9267000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9498000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9329000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8814000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9380000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9099000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8771000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8687000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9475000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3465000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3223000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2570000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3247000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3414000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3380000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3579000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3690000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3513000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3211000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3805000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3346000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3134000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3073000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2756000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3034000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3169000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2893000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2877000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1335,303 +1367,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E20" s="3">
         <v>145000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>223000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>178000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>162000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>313000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>286000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>220000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>315000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>358000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>325000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>470000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>355000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>406000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>441000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>367000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>242000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>289000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4188000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3804000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3244000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3869000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4022000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4150000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4326000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4374000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4309000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4056000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4595000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4332000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4053000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4025000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3763000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3979000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3971000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3731000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3749000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E22" s="3">
         <v>113000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>112000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>119000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>132000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>159000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>179000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>206000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>213000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>226000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>221000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>224000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>236000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>247000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>235000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>221000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>220000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>219000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>197000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3591000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3255000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2681000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3306000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3444000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3534000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3686000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3704000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3615000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3343000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3909000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3592000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3253000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3232000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2962000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3180000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3191000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2963000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2953000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>728000</v>
+      </c>
+      <c r="E24" s="3">
         <v>710000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>507000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>670000</v>
       </c>
       <c r="G24" s="3">
         <v>670000</v>
       </c>
       <c r="H24" s="3">
+        <v>670000</v>
+      </c>
+      <c r="I24" s="3">
         <v>656000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>760000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>684000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>571000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>463000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>360000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>489000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>562000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>910000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>568000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>756000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>676000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>615000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>631000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1689,126 +1737,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2863000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2545000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2174000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2636000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2774000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2878000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2926000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3020000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3044000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2880000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3549000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3103000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2691000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2322000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2394000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2424000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2515000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2348000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2863000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2545000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2174000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2636000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2774000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2878000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2926000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3020000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3044000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2880000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3549000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3103000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2691000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2322000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2394000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2424000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2515000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2348000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1866,8 +1923,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1889,29 +1949,29 @@
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="3">
         <v>-814000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-58000</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>700000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-11100000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -1925,8 +1985,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1984,8 +2047,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2043,126 +2109,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-237000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-145000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-223000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-178000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-162000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-313000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-286000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-220000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-315000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-358000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-325000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-470000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-355000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-406000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-441000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-367000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-242000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-289000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-273000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2863000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2545000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2174000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2636000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2774000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2878000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2926000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2206000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3044000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2822000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3549000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3803000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2691000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8778000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2394000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2424000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2515000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2348000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2220,131 +2295,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2863000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2545000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2174000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2636000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2774000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2878000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2926000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2206000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3044000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2822000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3549000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3803000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2691000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8778000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2394000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2424000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2515000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2348000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E38" s="2">
         <v>44219</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44128</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44037</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43946</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43855</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43764</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43673</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43582</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43491</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43400</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43309</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43218</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43127</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43036</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42945</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42854</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42763</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2366,8 +2450,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2389,539 +2474,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7356000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11800000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10825000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11809000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10367000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8475000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8587000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11750000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10251000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9835000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8410000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8934000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6719000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17624000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11043000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11708000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8116000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10898000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8583000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16229000</v>
+      </c>
+      <c r="E42" s="3">
         <v>18795000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>19190000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>17610000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>18208000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>18587000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>19448000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>21663000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>24392000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>30548000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>34183000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>37614000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>47712000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>56059000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>60545000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>58784000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>59858000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>60947000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>62385000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10373000</v>
+      </c>
+      <c r="E43" s="3">
         <v>10534000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10285000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11723000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10372000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9157000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9904000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10586000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8824000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8802000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9387000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10503000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9142000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8888000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9244000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>10002000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9274000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8954000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9346000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1579000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1436000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1303000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1282000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1212000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1353000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1344000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1383000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1513000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1701000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1572000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1846000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1900000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1896000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1693000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1616000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1366000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1264000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1176000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1523000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1346000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1386000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1149000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1148000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2481000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2433000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2373000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2331000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2231000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2134000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2940000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1668000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1583000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1555000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1593000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1348000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1329000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1651000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>37060000</v>
+      </c>
+      <c r="E46" s="3">
         <v>43911000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>42989000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>43573000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>41307000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>40053000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>41716000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>47755000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>47311000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>53117000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>55686000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>61837000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>67141000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>86050000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>84080000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>83703000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>79962000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>83392000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>83141000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5068000</v>
+      </c>
+      <c r="E47" s="3">
         <v>5100000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5516000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6992000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6024000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5973000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6048000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6158000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6112000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5813000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5884000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5978000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5884000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5895000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5823000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5721000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5518000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5671000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5775000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3295000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3360000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3365000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3374000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3465000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3621000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3769000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2789000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2834000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2931000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2956000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3006000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3082000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3113000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3202000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3322000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3395000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3422000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3499000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>41406000</v>
+      </c>
+      <c r="E49" s="3">
         <v>36195000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>36116000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>35382000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>35197000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>35518000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>35685000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>35730000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>35942000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>35563000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>36102000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>34258000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>34335000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>32865000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>32910000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>32305000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>32220000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>28939000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>29120000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2979,8 +3092,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3038,67 +3154,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7067000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7035000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7017000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5532000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5401000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5261000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5274000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5361000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5088000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5038000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4801000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3705000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3566000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3587000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4507000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4767000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4855000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4824000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4752000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3156,67 +3278,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>93896000</v>
+      </c>
+      <c r="E54" s="3">
         <v>95601000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>95003000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>94853000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>91394000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>90426000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>92492000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>97793000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>97287000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>102462000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>105429000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>108784000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>114008000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>131510000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>130522000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>129818000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>125950000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>126248000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>126287000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3238,8 +3366,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3261,362 +3390,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2440000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1867000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2294000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2218000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2393000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1935000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2016000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2059000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2022000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1655000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1805000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1904000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1552000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1060000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1155000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1385000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1219000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>957000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>996000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5000000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5002000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3005000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4506000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1499000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4000000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10191000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7777000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9737000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7241000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5238000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7736000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>13741000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>10239000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7992000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4248000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4451000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4155000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19822000</v>
+      </c>
+      <c r="E59" s="3">
         <v>20401000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>19695000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20108000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19038000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>18654000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18581000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19462000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18114000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18087000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17368000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19893000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19354000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>20563000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17890000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>18206000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17251000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17300000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>18066000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24262000</v>
+      </c>
+      <c r="E60" s="3">
         <v>27268000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>26991000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>25331000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>25937000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22088000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>24597000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>31712000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27913000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29479000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26414000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>27035000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>28642000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>35364000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>29284000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>27583000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>22718000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>22708000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>23217000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9532000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9554000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9564000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>11578000</v>
       </c>
       <c r="G61" s="3">
         <v>11578000</v>
       </c>
       <c r="H61" s="3">
+        <v>11578000</v>
+      </c>
+      <c r="I61" s="3">
         <v>14494000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>14497000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14475000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15921000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15893000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>18323000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20331000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20336000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>25625000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>25684000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>25725000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>28222000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>30471000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>30634000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19897000</v>
+      </c>
+      <c r="E62" s="3">
         <v>19658000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20291000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20024000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18171000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18311000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18975000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18035000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16649000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16301000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16844000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18214000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18369000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>18539000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10004000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10373000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9628000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9251000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9023000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3674,8 +3822,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3733,8 +3884,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3792,67 +3946,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>53691000</v>
+      </c>
+      <c r="E66" s="3">
         <v>56480000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>56846000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>56933000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>55686000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>54893000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>58069000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>64222000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>60483000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>61673000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>61581000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>65580000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>67347000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>79528000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>64972000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>63681000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>60568000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>62437000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>62881000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3874,8 +4034,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3933,8 +4094,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3992,8 +4156,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4051,8 +4218,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4110,67 +4280,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1456000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2351000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2756000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2763000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3874000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4384000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5083000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5903000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2877000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>538000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3169000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1233000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3709000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7364000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20647000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20838000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20721000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>20027000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19694000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4228,8 +4404,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4287,8 +4466,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4346,67 +4528,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>40205000</v>
+      </c>
+      <c r="E76" s="3">
         <v>39121000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>38157000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>37920000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>35708000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>35533000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>34423000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>33571000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36804000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>40789000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>43848000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>43204000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>46661000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>51982000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>65550000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>66137000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>65382000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>63811000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>63406000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4464,131 +4652,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E80" s="2">
         <v>44219</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44128</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44037</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43946</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43855</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43764</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43673</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43582</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43491</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43400</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43309</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43218</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43127</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43036</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42945</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42854</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42763</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2863000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2545000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2174000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2636000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2774000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2878000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2926000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2206000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3044000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2822000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3549000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3803000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2691000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8778000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2394000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2424000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2515000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2348000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4610,67 +4807,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>486000</v>
+      </c>
+      <c r="E83" s="3">
         <v>436000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>451000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>444000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>446000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>457000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>461000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>464000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>481000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>487000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>465000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>516000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>564000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>546000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>566000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>578000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>560000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>549000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4728,8 +4929,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4787,8 +4991,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4846,8 +5053,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4905,8 +5115,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4964,67 +5177,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3880000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2974000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4096000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3802000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4237000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3800000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3587000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3942000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4329000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3797000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3763000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4100000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2416000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4070000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3080000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4001000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3373000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3772000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2730000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5046,67 +5265,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-172000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-187000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-171000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-208000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-171000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-189000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-202000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-208000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-228000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-261000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-212000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-214000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-241000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-211000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-168000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-208000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-230000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-251000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-275000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5164,8 +5387,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5223,67 +5449,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3105000</v>
+      </c>
+      <c r="E94" s="3">
         <v>182000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2710000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>499000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>236000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>843000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1922000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2689000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5606000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3867000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2675000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>8069000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5760000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3990000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2495000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>695000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1710000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>418000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5396000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5305,67 +5537,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1560000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1521000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1520000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1525000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1519000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-1486000</v>
       </c>
       <c r="I96" s="3">
         <v>-1486000</v>
       </c>
       <c r="J96" s="3">
+        <v>-1486000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1490000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1519000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1470000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1500000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1535000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1572000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1425000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1436000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1448000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1451000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1304000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1308000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5423,8 +5659,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5482,8 +5721,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5541,67 +5783,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5219000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2178000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2859000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2602000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4757000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8668000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5132000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9541000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6271000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6945000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-9954000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-19081000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1479000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1250000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1104000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4445000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1875000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3618000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5659,63 +5907,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4444000</v>
+      </c>
+      <c r="E102" s="3">
         <v>978000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-987000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1442000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1871000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-114000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3159000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1499000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>394000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1393000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-507000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2215000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-10905000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6581000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-665000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3592000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2782000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2315000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>952000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>CSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,282 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44317</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44219</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44128</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44037</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43946</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43855</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43764</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43673</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43582</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43491</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43400</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43309</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43218</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43127</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43036</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42945</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42854</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42763</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13126000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12803000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11960000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11929000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12154000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11983000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12005000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13159000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13428000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12958000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12446000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13072000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12844000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12463000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11887000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12136000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12133000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11940000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11580000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12352000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4782000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4618000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4176000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4348000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4470000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4212000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4241000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4695000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4854000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4785000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4673000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4926000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4922000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4704000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4389000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4709000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4587000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4422000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4304000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4468000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8344000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8185000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7784000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7581000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7684000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7771000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7764000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8464000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8574000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8173000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7773000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8146000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7922000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7759000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7498000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7427000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7546000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7518000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7276000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7884000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,70 +963,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1713000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1697000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1527000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1612000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1565000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1546000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1570000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1666000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1753000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1659000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1557000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1608000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1626000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1590000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1549000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1567000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1499000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1507000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1508000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1545000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,132 +1091,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E14" s="3">
         <v>57000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>230000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>595000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>128000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>127000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>41000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>181000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>29000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>19000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>168000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>65000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>42000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>93000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>103000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>161000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>152000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>70000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>133000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>411000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E15" s="3">
         <v>61000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>39000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>36000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>33000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>34000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>38000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>36000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>38000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>39000</v>
       </c>
       <c r="M15" s="3">
         <v>39000</v>
       </c>
       <c r="N15" s="3">
+        <v>39000</v>
+      </c>
+      <c r="O15" s="3">
         <v>34000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>33000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>67000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>60000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>61000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>58000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>59000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>64000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1220,132 +1245,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>9551000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9338000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8737000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9359000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8907000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8569000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8625000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9580000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9738000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9445000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9235000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9267000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9498000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9329000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8814000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9380000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9099000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8771000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8687000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9475000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3575000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3465000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3223000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2570000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3247000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3414000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3380000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3579000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3690000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3513000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3211000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3805000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3346000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3134000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3073000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2756000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3034000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3169000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2893000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2877000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1368,318 +1400,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E20" s="3">
         <v>237000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>145000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>223000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>178000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>162000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>313000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>286000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>220000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>315000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>358000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>325000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>470000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>355000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>406000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>441000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>367000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>242000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>289000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4322000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4188000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3804000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3244000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3869000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4022000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4150000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4326000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4374000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4309000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4056000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4595000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4332000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4053000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4025000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3763000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3979000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3971000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3731000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3749000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E22" s="3">
         <v>111000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>113000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>112000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>119000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>132000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>159000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>179000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>206000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>213000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>226000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>221000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>224000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>236000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>247000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>235000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>221000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>220000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>219000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>197000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3735000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3591000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3255000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2681000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3306000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3444000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3534000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3686000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3704000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3615000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3343000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3909000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3592000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3253000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3232000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2962000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3180000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3191000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2963000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2953000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>726000</v>
+      </c>
+      <c r="E24" s="3">
         <v>728000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>710000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>507000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>670000</v>
       </c>
       <c r="H24" s="3">
         <v>670000</v>
       </c>
       <c r="I24" s="3">
+        <v>670000</v>
+      </c>
+      <c r="J24" s="3">
         <v>656000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>760000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>684000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>571000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>463000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>360000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>489000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>562000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>910000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>568000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>756000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>676000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>615000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>631000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1740,132 +1788,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>3009000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2863000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2545000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2174000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2636000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2774000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2878000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2926000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3020000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3044000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2880000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3549000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3103000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2691000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2322000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2394000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2424000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2515000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2348000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>3009000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2863000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2545000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2174000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2636000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2774000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2878000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2926000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3020000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3044000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2880000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3549000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3103000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2691000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2322000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2394000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2424000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2515000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2348000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1926,8 +1983,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1952,29 +2012,29 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3">
         <v>-814000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-58000</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>700000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-11100000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -1988,8 +2048,11 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2050,8 +2113,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2112,132 +2178,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-258000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-237000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-145000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-223000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-178000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-162000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-313000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-286000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-220000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-315000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-358000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-325000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-470000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-355000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-406000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-441000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-367000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-242000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-289000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-273000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3009000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2863000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2545000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2174000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2636000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2774000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2878000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2926000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2206000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3044000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2822000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3549000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3803000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2691000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8778000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2394000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2424000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2515000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2348000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2298,137 +2373,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3009000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2863000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2545000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2174000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2636000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2774000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2878000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2926000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2206000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3044000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2822000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3549000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3803000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2691000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8778000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2394000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2424000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2515000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2348000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44317</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44219</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44128</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44037</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43946</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43855</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43764</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43673</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43582</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43491</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43400</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43309</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43218</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43127</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43036</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42945</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42854</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42763</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2451,8 +2535,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2475,566 +2560,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9175000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7356000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11800000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10825000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11809000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10367000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8475000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8587000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11750000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10251000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9835000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8410000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8934000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6719000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17624000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11043000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11708000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8116000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10898000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8583000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>15343000</v>
+      </c>
+      <c r="E42" s="3">
         <v>16229000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>18795000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>19190000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>17610000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>18208000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>18587000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>19448000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>21663000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>24392000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>30548000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>34183000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>37614000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>47712000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>56059000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>60545000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>58784000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>59858000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>60947000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>62385000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11546000</v>
+      </c>
+      <c r="E43" s="3">
         <v>10373000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10534000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10285000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11723000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10372000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9157000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9904000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10586000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8824000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8802000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9387000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10503000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9142000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8888000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9244000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>10002000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9274000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8954000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9346000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1579000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1436000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1303000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1282000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1212000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1353000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1344000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1383000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1513000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1701000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1572000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1846000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1900000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1896000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1693000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1616000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1366000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1264000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1176000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1489000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1523000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1346000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1386000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1149000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1148000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2481000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2433000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2373000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2331000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2231000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2134000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2940000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1668000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1583000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1555000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1593000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1348000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1329000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1651000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>39112000</v>
+      </c>
+      <c r="E46" s="3">
         <v>37060000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>43911000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>42989000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>43573000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>41307000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>40053000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>41716000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>47755000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>47311000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>53117000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>55686000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>61837000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>67141000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>86050000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>84080000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>83703000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>79962000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>83392000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>83141000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4884000</v>
+      </c>
+      <c r="E47" s="3">
         <v>5068000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5100000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5516000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6992000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6024000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5973000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6048000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6158000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6112000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5813000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5884000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5978000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5884000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5895000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5823000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5721000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5518000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5671000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5775000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3433000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3295000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3360000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3365000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3374000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3465000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3621000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3769000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2789000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2834000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2931000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2956000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3006000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3082000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3113000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3202000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3322000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3395000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3422000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3499000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>41787000</v>
+      </c>
+      <c r="E49" s="3">
         <v>41406000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>36195000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>36116000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>35382000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>35197000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>35518000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>35685000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>35730000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>35942000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>35563000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>36102000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>34258000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>34335000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>32865000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>32910000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>32305000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>32220000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>28939000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>29120000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3095,8 +3208,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3157,70 +3273,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8281000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7067000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7035000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7017000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5532000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5401000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5261000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5274000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5361000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5088000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5038000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4801000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3705000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3566000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3587000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4507000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4767000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4855000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4824000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4752000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3281,70 +3403,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>97497000</v>
+      </c>
+      <c r="E54" s="3">
         <v>93896000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>95601000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>95003000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>94853000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>91394000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>90426000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>92492000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>97793000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>97287000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>102462000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>105429000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>108784000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>114008000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>131510000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>130522000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>129818000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>125950000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>126248000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>126287000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3367,8 +3495,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3391,380 +3520,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2362000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2440000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1867000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2294000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2218000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2393000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1935000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2016000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2059000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2022000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1655000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1805000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1904000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1552000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1060000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1155000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1385000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1219000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>957000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>996000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2508000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2000000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5000000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5002000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3005000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4506000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1499000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4000000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10191000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7777000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9737000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7241000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5238000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7736000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>13741000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10239000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7992000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4248000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4451000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4155000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21387000</v>
+      </c>
+      <c r="E59" s="3">
         <v>19822000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20401000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19695000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20108000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19038000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18654000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18581000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19462000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18114000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18087000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17368000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19893000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19354000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>20563000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17890000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>18206000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17251000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17300000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>18066000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>26257000</v>
+      </c>
+      <c r="E60" s="3">
         <v>24262000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27268000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>26991000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>25331000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>25937000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22088000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>24597000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>31712000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27913000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>29479000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>26414000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>27035000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>28642000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>35364000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>29284000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>27583000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>22718000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>22708000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>23217000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9018000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9532000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9554000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9564000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>11578000</v>
       </c>
       <c r="H61" s="3">
         <v>11578000</v>
       </c>
       <c r="I61" s="3">
+        <v>11578000</v>
+      </c>
+      <c r="J61" s="3">
         <v>14494000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14497000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14475000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15921000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15893000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>18323000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20331000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20336000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>25625000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>25684000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>25725000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>28222000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>30471000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>30634000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20947000</v>
+      </c>
+      <c r="E62" s="3">
         <v>19897000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19658000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20291000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>20024000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18171000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18311000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18975000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18035000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16649000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16301000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16844000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18214000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>18369000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>18539000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10004000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10373000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9628000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9251000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9023000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3825,8 +3973,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3887,8 +4038,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3949,70 +4103,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>56222000</v>
+      </c>
+      <c r="E66" s="3">
         <v>53691000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>56480000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>56846000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>56933000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>55686000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>54893000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>58069000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>64222000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>60483000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>61673000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>61581000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>65580000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>67347000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>79528000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>64972000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>63681000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>60568000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>62437000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>62881000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4035,8 +4195,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4097,8 +4258,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4159,8 +4323,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4221,8 +4388,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4283,70 +4453,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-654000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1456000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2351000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2756000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2763000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3874000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4384000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5083000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5903000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2877000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>538000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3169000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1233000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3709000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7364000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20647000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20838000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>20721000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>20027000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>19694000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4407,8 +4583,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4469,8 +4648,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4531,70 +4713,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41275000</v>
+      </c>
+      <c r="E76" s="3">
         <v>40205000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>39121000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>38157000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>37920000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>35708000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>35533000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>34423000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33571000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36804000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>40789000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>43848000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>43204000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>46661000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>51982000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>65550000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>66137000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>65382000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>63811000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>63406000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4655,137 +4843,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44317</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44219</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44128</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44037</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43946</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43855</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43764</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43673</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43582</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43491</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43400</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43309</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43218</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43127</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43036</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42945</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42854</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42763</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3009000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2863000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2545000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2174000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2636000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2774000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2878000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2926000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2206000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3044000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2822000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3549000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3803000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2691000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8778000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2394000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2424000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2515000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2348000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4808,70 +5005,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>489000</v>
+      </c>
+      <c r="E83" s="3">
         <v>486000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>436000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>451000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>444000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>446000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>457000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>461000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>464000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>481000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>487000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>465000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>516000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>564000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>546000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>566000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>578000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>560000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>549000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4932,8 +5133,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4994,8 +5198,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5056,8 +5263,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5118,8 +5328,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5180,70 +5393,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4504000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3880000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2974000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4096000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3802000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4237000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3800000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3587000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3942000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4329000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3797000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3763000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4100000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2416000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4070000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3080000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4001000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3373000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3772000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2730000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5266,70 +5485,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-172000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-187000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-171000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-208000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-171000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-189000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-202000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-208000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-228000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-261000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-212000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-214000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-241000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-211000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-168000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-208000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-230000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-251000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-275000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5390,8 +5613,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5452,70 +5678,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3105000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>182000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2710000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>499000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>236000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>843000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1922000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2689000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5606000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3867000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2675000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>8069000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>5760000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3990000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2495000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>695000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1710000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>418000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5396000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5538,70 +5770,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1562000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1560000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1521000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1520000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1525000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1519000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-1486000</v>
       </c>
       <c r="J96" s="3">
         <v>-1486000</v>
       </c>
       <c r="K96" s="3">
+        <v>-1486000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1490000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1519000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1470000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1500000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1535000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1572000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1425000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1436000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1448000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1451000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1304000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1308000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5662,8 +5898,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5724,8 +5963,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5786,70 +6028,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2269000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5219000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2178000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2859000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2602000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4757000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8668000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5132000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9541000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6271000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6945000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-9954000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-19081000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1479000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1250000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1104000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4445000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1875000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3618000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5910,66 +6158,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2583000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4444000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>978000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-987000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1442000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1871000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-114000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3159000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1499000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>394000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1393000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-507000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2215000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10905000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6581000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-665000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3592000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2782000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2315000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>952000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>CSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,306 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44499</v>
+      </c>
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44317</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44219</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44128</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44037</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43946</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43855</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43764</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43673</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43582</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43491</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43400</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43309</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43218</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43127</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43036</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42945</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42854</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42763</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12720000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>12900000</v>
+      </c>
+      <c r="F8" s="3">
         <v>13126000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>12803000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>11960000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>11929000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>12154000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>11983000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>12005000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>13159000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>13428000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>12958000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>12446000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>13072000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>12844000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>12463000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>11887000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>12136000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>12133000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>11940000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>11580000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>12352000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4671000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4847000</v>
+      </c>
+      <c r="F9" s="3">
         <v>4782000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>4618000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>4176000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>4348000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>4470000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>4212000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4241000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4695000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4854000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>4785000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4673000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4926000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>4922000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>4704000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4389000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>4709000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>4587000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>4422000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>4304000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>4468000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8049000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8053000</v>
+      </c>
+      <c r="F10" s="3">
         <v>8344000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>8185000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>7784000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>7581000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>7684000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>7771000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>7764000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>8464000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>8574000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>8173000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>7773000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>8146000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>7922000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>7759000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>7498000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>7427000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>7546000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>7518000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>7276000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>7884000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,73 +988,81 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1670000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1714000</v>
+      </c>
+      <c r="F12" s="3">
         <v>1713000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1697000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1527000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1612000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1565000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1546000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1570000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1666000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1753000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1659000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1557000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1608000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1626000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1590000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1549000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1567000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>1499000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>1507000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>1508000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>1545000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1094,73 +1126,85 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F14" s="3">
         <v>24000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>57000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>230000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>595000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>128000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>127000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>41000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>181000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>29000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>19000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>168000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>65000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>42000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>93000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>103000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>161000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>152000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>70000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>133000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>411000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1168,64 +1212,70 @@
         <v>79000</v>
       </c>
       <c r="E15" s="3">
+        <v>84000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>79000</v>
+      </c>
+      <c r="G15" s="3">
         <v>61000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>39000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>36000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>33000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>34000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>38000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>36000</v>
       </c>
       <c r="L15" s="3">
         <v>38000</v>
       </c>
       <c r="M15" s="3">
+        <v>36000</v>
+      </c>
+      <c r="N15" s="3">
+        <v>38000</v>
+      </c>
+      <c r="O15" s="3">
         <v>39000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>39000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>34000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>33000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>67000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>60000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>61000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>58000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>59000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>64000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1246,138 +1296,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>9233000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9462000</v>
+      </c>
+      <c r="F17" s="3">
         <v>9551000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>9338000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>8737000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>9359000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>8907000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8569000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8625000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>9580000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>9738000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>9445000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>9235000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>9267000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>9498000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>9329000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>8814000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>9380000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>9099000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>8771000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>8687000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>9475000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3487000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3438000</v>
+      </c>
+      <c r="F18" s="3">
         <v>3575000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>3465000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>3223000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>2570000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>3247000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>3414000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3380000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3579000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>3690000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3513000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>3211000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3805000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>3346000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>3134000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>3073000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2756000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>3034000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>3169000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>2893000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>2877000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1401,333 +1465,365 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>204000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>308000</v>
+      </c>
+      <c r="F20" s="3">
         <v>258000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>237000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>145000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>223000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>178000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>162000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>313000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>286000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>220000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>315000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>358000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>325000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>470000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>355000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>406000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>441000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>367000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>242000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>289000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4207000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4279000</v>
+      </c>
+      <c r="F21" s="3">
         <v>4322000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>4188000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>3804000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>3244000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>3869000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>4022000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>4150000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>4326000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>4374000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>4309000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>4056000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>4595000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>4332000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>4053000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>4025000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>3763000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>3979000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>3971000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>3731000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>3749000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>89000</v>
+      </c>
+      <c r="F22" s="3">
         <v>98000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>111000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>113000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>112000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>119000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>132000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>159000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>179000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>206000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>213000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>226000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>221000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>224000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>236000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>247000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>235000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>221000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>220000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>219000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>197000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3603000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3657000</v>
+      </c>
+      <c r="F23" s="3">
         <v>3735000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3591000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>3255000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>2681000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>3306000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3444000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3534000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3686000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>3704000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3615000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3343000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>3909000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>3592000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>3253000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>3232000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2962000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>3180000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>3191000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>2963000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>2953000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>630000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>677000</v>
+      </c>
+      <c r="F24" s="3">
         <v>726000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>728000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>710000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>507000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>670000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>670000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>656000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>760000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>684000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>571000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>463000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>360000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>489000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>562000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>910000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>568000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>756000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>676000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>615000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>631000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1791,138 +1887,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2973000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2980000</v>
+      </c>
+      <c r="F26" s="3">
         <v>3009000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2863000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2545000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2174000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>2636000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2774000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2878000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2926000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3020000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3044000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2880000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>3549000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>3103000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>2691000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>2322000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>2394000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>2424000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>2515000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>2348000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2973000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2980000</v>
+      </c>
+      <c r="F27" s="3">
         <v>3009000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2863000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2545000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2174000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2636000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2774000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2878000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2926000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3020000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>3044000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2880000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>3549000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>3103000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>2691000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>2322000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>2394000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>2424000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>2515000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>2348000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1986,8 +2100,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2015,32 +2135,32 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>-814000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-58000</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>700000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-11100000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2051,8 +2171,14 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2116,8 +2242,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2181,138 +2313,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-204000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-308000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-258000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-237000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-145000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-223000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-178000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-162000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-313000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-286000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-220000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-315000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-358000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-325000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-470000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-355000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-406000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-441000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-367000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-242000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-289000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-273000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2973000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2980000</v>
+      </c>
+      <c r="F33" s="3">
         <v>3009000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2863000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2545000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2174000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2636000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2774000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2878000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2926000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2206000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3044000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2822000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>3549000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>3803000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>2691000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-8778000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>2394000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>2424000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>2515000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>2348000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2376,143 +2526,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2973000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2980000</v>
+      </c>
+      <c r="F35" s="3">
         <v>3009000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2863000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2545000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2174000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2636000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2774000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2878000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2926000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2206000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3044000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2822000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>3549000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>3803000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>2691000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-8778000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>2394000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>2424000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>2515000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>2348000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44499</v>
+      </c>
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44317</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44219</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44128</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44037</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43946</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43855</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43764</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43673</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43582</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43491</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43400</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43309</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43218</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43127</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43036</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42945</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42854</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42763</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2536,8 +2704,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2561,593 +2731,649 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6742000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7629000</v>
+      </c>
+      <c r="F41" s="3">
         <v>9175000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>7356000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>11800000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>10825000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>11809000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>10367000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8475000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>8587000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>11750000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>10251000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>9835000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>8410000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>8934000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>6719000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>17624000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>11043000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>11708000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>8116000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>10898000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>8583000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14382000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>15727000</v>
+      </c>
+      <c r="F42" s="3">
         <v>15343000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>16229000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>18795000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>19190000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>17610000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>18208000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>18587000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>19448000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>21663000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>24392000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>30548000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>34183000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>37614000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>47712000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>56059000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>60545000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>58784000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>59858000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>60947000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>62385000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11400000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>10776000</v>
+      </c>
+      <c r="F43" s="3">
         <v>11546000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>10373000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>10534000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>10285000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>11723000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>10372000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>9157000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>9904000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>10586000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>8824000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>8802000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>9387000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>10503000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>9142000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>8888000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>9244000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>10002000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>9274000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>8954000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>9346000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2059000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1832000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1559000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1579000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1436000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1303000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1282000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1212000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1353000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1344000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1383000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1513000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1701000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1572000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1846000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1900000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1896000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1693000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1616000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1366000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1264000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1176000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2216000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1624000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1489000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1523000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1346000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1386000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1149000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1148000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2481000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2433000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2373000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2331000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2231000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2134000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2940000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1668000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1583000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1555000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1593000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1348000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1329000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1651000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>36799000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>37588000</v>
+      </c>
+      <c r="F46" s="3">
         <v>39112000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>37060000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>43911000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>42989000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>43573000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>41307000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>40053000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>41716000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>47755000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>47311000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>53117000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>55686000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>61837000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>67141000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>86050000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>84080000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>83703000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>79962000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>83392000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>83141000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4024000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>4546000</v>
+      </c>
+      <c r="F47" s="3">
         <v>4884000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>5068000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>5100000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>5516000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>6992000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>6024000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>5973000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>6048000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>6158000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>6112000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>5813000</v>
-      </c>
-      <c r="O47" s="3">
-        <v>5884000</v>
-      </c>
-      <c r="P47" s="3">
-        <v>5978000</v>
       </c>
       <c r="Q47" s="3">
         <v>5884000</v>
       </c>
       <c r="R47" s="3">
+        <v>5978000</v>
+      </c>
+      <c r="S47" s="3">
+        <v>5884000</v>
+      </c>
+      <c r="T47" s="3">
         <v>5895000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>5823000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>5721000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>5518000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>5671000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>5775000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3218000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3356000</v>
+      </c>
+      <c r="F48" s="3">
         <v>3433000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3295000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3360000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3365000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3374000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3465000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3621000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3769000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2789000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2834000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2931000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2956000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3006000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3082000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3113000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>3202000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>3322000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>3395000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>3422000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>3499000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>41758000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>42152000</v>
+      </c>
+      <c r="F49" s="3">
         <v>41787000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>41406000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>36195000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>36116000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>35382000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>35197000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>35518000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>35685000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>35730000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>35942000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>35563000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>36102000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>34258000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>34335000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>32865000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>32910000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>32305000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>32220000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>28939000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>29120000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3211,8 +3437,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3276,73 +3508,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8463000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8339000</v>
+      </c>
+      <c r="F52" s="3">
         <v>8281000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>7067000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>7035000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>7017000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>5532000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>5401000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>5261000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>5274000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>5361000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>5088000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>5038000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>4801000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>3705000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>3566000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>3587000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>4507000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>4767000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>4855000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>4824000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>4752000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3406,73 +3650,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>94262000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>95981000</v>
+      </c>
+      <c r="F54" s="3">
         <v>97497000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>93896000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>95601000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>95003000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>94853000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>91394000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>90426000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>92492000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>97793000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>97287000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>102462000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>105429000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>108784000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>114008000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>131510000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>130522000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>129818000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>125950000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>126248000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>126287000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3496,8 +3752,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3521,398 +3779,436 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2101000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2261000</v>
+      </c>
+      <c r="F57" s="3">
         <v>2362000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2440000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1867000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2294000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2218000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2393000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1935000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2016000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2059000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2022000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1655000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1805000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1904000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1552000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1060000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1155000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1385000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1219000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>957000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>996000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2502000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>506000</v>
+      </c>
+      <c r="F58" s="3">
         <v>2508000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2000000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>5000000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>5002000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3005000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4506000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1499000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4000000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>10191000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>7777000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>9737000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>7241000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>5238000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>7736000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>13741000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>10239000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>7992000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>4248000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>4451000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>4155000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21312000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>20471000</v>
+      </c>
+      <c r="F59" s="3">
         <v>21387000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>19822000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>20401000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>19695000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>20108000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>19038000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>18654000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>18581000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>19462000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>18114000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>18087000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>17368000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>19893000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>19354000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>20563000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>17890000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>18206000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>17251000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>17300000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>18066000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25915000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>23238000</v>
+      </c>
+      <c r="F60" s="3">
         <v>26257000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>24262000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>27268000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>26991000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>25331000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>25937000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>22088000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>24597000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>31712000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>27913000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>29479000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>26414000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>27035000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>28642000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>35364000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>29284000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>27583000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>22718000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>22708000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>23217000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8969000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>8996000</v>
+      </c>
+      <c r="F61" s="3">
         <v>9018000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>9532000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>9554000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>9564000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>11578000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>11578000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>14494000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>14497000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>14475000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>15921000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>15893000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>18323000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>20331000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>20336000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>25625000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>25684000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>25725000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>28222000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>30471000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>30634000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19882000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>21046000</v>
+      </c>
+      <c r="F62" s="3">
         <v>20947000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>19897000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>19658000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>20291000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>20024000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>18171000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>18311000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>18975000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>18035000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>16649000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>16301000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>16844000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>18214000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>18369000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>18539000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>10004000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>10373000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>9628000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>9251000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>9023000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3976,8 +4272,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4041,8 +4343,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4106,73 +4414,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>54766000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>53280000</v>
+      </c>
+      <c r="F66" s="3">
         <v>56222000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>53691000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>56480000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>56846000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>56933000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>55686000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>54893000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>58069000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>64222000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>60483000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>61673000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>61581000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>65580000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>67347000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>79528000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>64972000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>63681000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>60568000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>62437000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>62881000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4196,8 +4516,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4261,8 +4583,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4326,8 +4654,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4391,8 +4725,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4456,73 +4796,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2006000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>553000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-654000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1456000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2351000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2756000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2763000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-3874000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4384000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5083000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-5903000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2877000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>538000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>3169000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1233000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>3709000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>7364000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>20647000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>20838000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>20721000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>20027000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>19694000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4586,8 +4938,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4651,8 +5009,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4716,73 +5080,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>39496000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>42701000</v>
+      </c>
+      <c r="F76" s="3">
         <v>41275000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>40205000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>39121000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>38157000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>37920000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>35708000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>35533000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>34423000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>33571000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>36804000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>40789000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>43848000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>43204000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>46661000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>51982000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>65550000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>66137000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>65382000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>63811000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>63406000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4846,143 +5222,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44499</v>
+      </c>
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44317</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44219</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44128</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44037</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43946</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43855</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43764</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43673</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43582</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43491</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43400</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43309</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43218</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43127</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43036</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42945</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42854</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42763</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2973000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2980000</v>
+      </c>
+      <c r="F81" s="3">
         <v>3009000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2863000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2545000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2174000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2636000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2774000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2878000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2926000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2206000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3044000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2822000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>3549000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>3803000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>2691000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-8778000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>2394000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>2424000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>2515000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>2348000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5006,73 +5400,81 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>516000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>533000</v>
+      </c>
+      <c r="F83" s="3">
         <v>489000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>486000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>436000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>451000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>444000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>446000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>457000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>461000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>464000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>481000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>487000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>465000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>516000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>564000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>546000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>566000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>578000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>560000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>549000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5136,8 +5538,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5201,8 +5609,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5266,8 +5680,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5331,8 +5751,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5396,73 +5822,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2461000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3427000</v>
+      </c>
+      <c r="F89" s="3">
         <v>4504000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>3880000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2974000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>4096000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>3802000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>4237000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3800000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>3587000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3942000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>4329000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>3797000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>3763000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>4100000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>2416000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>4070000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>3080000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>4001000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>3373000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>3772000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>2730000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5486,73 +5924,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-110000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-162000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-172000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-187000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-171000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-208000</v>
       </c>
       <c r="I91" s="3">
         <v>-171000</v>
       </c>
       <c r="J91" s="3">
+        <v>-208000</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-189000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-202000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-208000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-228000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-261000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-212000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-214000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-241000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-211000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-168000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-208000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-230000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-251000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-275000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5616,8 +6062,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5681,73 +6133,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1051000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1020000</v>
+      </c>
+      <c r="F94" s="3">
         <v>348000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3105000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>182000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2710000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>499000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>236000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>843000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>1922000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>2689000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>5606000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>3867000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>2675000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>8069000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>5760000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>3990000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-2495000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>695000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1710000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>418000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-5396000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5771,73 +6235,81 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1541000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-1561000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1562000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-1560000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-1521000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-1520000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-1525000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-1519000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1486000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-1486000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-1490000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-1519000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-1470000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-1500000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-1535000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-1572000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-1425000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-1436000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-1448000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-1451000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-1304000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-1308000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5901,8 +6373,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5966,8 +6444,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6031,73 +6515,85 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4399000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3970000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2269000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-5219000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-2178000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-2859000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-2602000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-4757000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-8668000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-5132000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-9541000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-6271000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-6945000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-9954000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-19081000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-1479000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1250000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1104000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-4445000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-1875000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>3618000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6161,69 +6657,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-887000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1563000</v>
+      </c>
+      <c r="F102" s="3">
         <v>2583000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-4444000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>978000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-987000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1442000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1871000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-114000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-3159000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1499000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>394000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1393000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-507000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>2215000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-10905000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>6581000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-665000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>3592000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-2782000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>2315000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>952000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>CSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,306 +665,318 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44590</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44499</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44317</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44219</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44128</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44037</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43946</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43855</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43764</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43673</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43582</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43491</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43400</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43309</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43218</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43127</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43036</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42945</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42854</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42763</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12835000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12720000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12900000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13126000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12803000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11960000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11929000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12154000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11983000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12005000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13159000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13428000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12958000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12446000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13072000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12844000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12463000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11887000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12136000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12133000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11940000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11580000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>12352000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4714000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4671000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4847000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4782000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4618000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4176000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4348000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4470000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4212000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4241000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4695000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4854000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4785000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4673000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4926000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4922000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4704000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4389000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4709000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4587000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4422000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4304000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4468000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8121000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8049000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8053000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8344000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8185000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7784000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7581000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7684000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7771000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7764000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8464000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8574000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8173000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7773000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8146000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7922000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7759000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7498000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7427000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7546000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7518000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>7276000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>7884000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,79 +1002,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1708000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1670000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1714000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1713000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1697000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1527000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1612000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1565000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1546000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1570000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1666000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1753000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1659000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1557000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1608000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1626000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1590000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1549000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1567000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1499000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1507000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1508000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1545000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1132,150 +1148,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="3">
         <v>22000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>23000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>24000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>57000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>230000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>595000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>128000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>127000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>41000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>181000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>29000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>19000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>168000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>65000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>42000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>93000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>103000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>161000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>152000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>70000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>133000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>411000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E15" s="3">
         <v>79000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>84000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>79000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>61000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>39000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>36000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>33000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>34000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>38000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>36000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>38000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>39000</v>
       </c>
       <c r="P15" s="3">
         <v>39000</v>
       </c>
       <c r="Q15" s="3">
+        <v>39000</v>
+      </c>
+      <c r="R15" s="3">
         <v>34000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>33000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>67000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>60000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>61000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>58000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>59000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>64000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1298,150 +1323,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>9225000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9233000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9462000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9551000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9338000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8737000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9359000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8907000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8569000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8625000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9580000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9738000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9445000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9235000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9267000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9498000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9329000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8814000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9380000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9099000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8771000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8687000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9475000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3610000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3487000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3438000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3575000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3465000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3223000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2570000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3247000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3414000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3380000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3579000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3690000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3513000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3211000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3805000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3346000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3134000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3073000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2756000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3034000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3169000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2893000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2877000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1467,363 +1499,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E20" s="3">
         <v>204000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>308000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>258000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>237000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>145000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>223000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>178000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>162000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>313000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>286000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>220000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>315000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>358000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>325000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>470000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>355000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>406000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>441000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>367000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>242000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>289000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4369000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4207000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4279000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4322000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4188000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3804000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3244000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3869000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4022000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4150000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4326000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4374000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4309000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4056000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4595000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4332000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4053000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4025000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3763000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3979000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3971000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3731000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3749000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E22" s="3">
         <v>88000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>89000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>98000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>111000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>113000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>112000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>119000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>132000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>159000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>179000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>206000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>213000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>226000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>221000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>224000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>236000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>247000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>235000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>221000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>220000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>219000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>197000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3801000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3603000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3657000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3735000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3591000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3255000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2681000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3306000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3444000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3534000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3686000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3704000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3615000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3343000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3909000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3592000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3253000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3232000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2962000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3180000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3191000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2963000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2953000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>757000</v>
+      </c>
+      <c r="E24" s="3">
         <v>630000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>677000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>726000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>728000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>710000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>507000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>670000</v>
       </c>
       <c r="K24" s="3">
         <v>670000</v>
       </c>
       <c r="L24" s="3">
+        <v>670000</v>
+      </c>
+      <c r="M24" s="3">
         <v>656000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>760000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>684000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>571000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>463000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>360000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>489000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>562000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>910000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>568000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>756000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>676000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>615000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>631000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1893,150 +1941,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>3044000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2973000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2980000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3009000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2863000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2545000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2174000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2636000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2774000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2878000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2926000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3020000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3044000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2880000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3549000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3103000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2691000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2322000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2394000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2424000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2515000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2348000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>3044000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2973000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2980000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3009000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2863000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2545000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2174000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2636000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2774000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2878000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2926000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3020000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3044000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2880000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3549000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3103000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2691000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2322000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2394000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2424000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2515000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2348000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2106,8 +2163,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2141,29 +2201,29 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
         <v>-814000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-58000</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>700000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-11100000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
@@ -2177,8 +2237,11 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2248,8 +2311,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2319,150 +2385,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-281000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-204000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-308000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-258000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-237000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-145000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-223000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-178000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-162000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-313000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-286000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-220000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-315000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-358000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-325000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-470000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-355000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-406000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-441000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-367000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-242000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-289000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-273000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3044000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2973000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2980000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3009000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2863000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2545000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2174000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2636000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2774000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2878000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2926000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2206000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3044000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2822000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3549000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3803000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2691000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8778000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2394000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2424000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2515000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2348000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2532,155 +2607,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3044000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2973000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2980000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3009000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2863000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2545000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2174000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2636000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2774000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2878000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2926000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2206000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3044000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2822000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3549000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3803000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2691000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8778000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2394000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2424000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2515000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2348000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44590</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44499</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44317</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44219</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44128</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44037</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43946</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43855</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43764</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43673</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43582</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43491</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43400</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43309</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43218</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43127</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43036</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42945</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42854</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42763</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2706,8 +2790,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2733,647 +2818,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6959000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6742000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7629000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9175000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7356000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11800000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10825000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11809000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10367000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8475000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8587000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11750000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10251000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9835000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8410000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8934000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6719000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>17624000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11043000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11708000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8116000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>10898000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>8583000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>13156000</v>
+      </c>
+      <c r="E42" s="3">
         <v>14382000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>15727000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>15343000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>16229000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>18795000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>19190000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>17610000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>18208000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>18587000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>19448000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>21663000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>24392000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>30548000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>34183000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>37614000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>47712000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>56059000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>60545000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>58784000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>59858000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>60947000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>62385000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10887000</v>
+      </c>
+      <c r="E43" s="3">
         <v>11400000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10776000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11546000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10373000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10534000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10285000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11723000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10372000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9157000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9904000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10586000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8824000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8802000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9387000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>10503000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9142000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8888000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9244000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>10002000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9274000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8954000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>9346000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2231000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2059000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1832000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1559000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1579000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1436000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1303000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1282000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1212000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1353000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1344000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1383000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1513000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1701000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1572000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1846000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1900000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1896000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1693000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1616000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1366000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1264000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1176000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2748000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2216000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1624000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1489000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1523000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1346000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1386000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1149000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1148000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2481000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2433000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2373000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2331000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2231000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2134000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2940000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1668000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1583000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1555000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1593000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1348000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1329000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1651000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>35981000</v>
+      </c>
+      <c r="E46" s="3">
         <v>36799000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>37588000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>39112000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>37060000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>43911000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>42989000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>43573000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>41307000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>40053000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>41716000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>47755000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>47311000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>53117000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>55686000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>61837000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>67141000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>86050000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>84080000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>83703000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>79962000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>83392000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>83141000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3959000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4024000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4546000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4884000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5068000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5100000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5516000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6992000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6024000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5973000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6048000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6158000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6112000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5813000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5884000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5978000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5884000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5895000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5823000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5721000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>5518000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>5671000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>5775000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3070000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3218000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3356000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3433000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3295000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3360000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3365000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3374000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3465000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3621000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3769000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2789000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2834000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2931000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2956000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3006000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3082000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3113000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3202000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3322000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3395000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3422000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3499000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>41263000</v>
+      </c>
+      <c r="E49" s="3">
         <v>41758000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>42152000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>41787000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>41406000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>36195000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>36116000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>35382000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>35197000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>35518000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>35685000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>35730000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>35942000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>35563000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>36102000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>34258000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>34335000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>32865000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>32910000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>32305000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>32220000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>28939000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>29120000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3443,8 +3556,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3514,79 +3630,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8524000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8463000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8339000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8281000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7067000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7035000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7017000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5532000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5401000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5261000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5274000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5361000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5088000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5038000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4801000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3705000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3566000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3587000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4507000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4767000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4855000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4824000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4752000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3656,79 +3778,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>92797000</v>
+      </c>
+      <c r="E54" s="3">
         <v>94262000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>95981000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>97497000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>93896000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>95601000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>95003000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>94853000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>91394000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>90426000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>92492000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>97793000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>97287000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>102462000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>105429000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>108784000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>114008000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>131510000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>130522000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>129818000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>125950000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>126248000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>126287000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3754,8 +3882,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3781,434 +3910,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2289000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2101000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2261000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2362000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2440000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1867000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2294000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2218000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2393000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1935000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2016000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2059000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2022000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1655000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1805000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1904000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1552000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1060000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1155000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1385000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1219000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>957000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>996000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2502000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>506000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2508000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2000000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5000000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5002000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3005000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4506000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1499000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4000000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10191000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7777000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9737000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7241000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5238000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7736000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>13741000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>10239000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7992000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4248000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4451000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4155000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20861000</v>
+      </c>
+      <c r="E59" s="3">
         <v>21312000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20471000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21387000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19822000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20401000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19695000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>20108000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19038000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18654000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18581000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19462000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18114000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18087000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17368000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>19893000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>19354000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>20563000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17890000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>18206000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>17251000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>17300000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>18066000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24150000</v>
+      </c>
+      <c r="E60" s="3">
         <v>25915000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>23238000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>26257000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>24262000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>27268000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>26991000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>25331000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>25937000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22088000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>24597000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>31712000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>27913000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>29479000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>26414000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>27035000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>28642000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>35364000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>29284000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>27583000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>22718000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>22708000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>23217000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8418000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8969000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8996000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9018000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9532000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9554000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9564000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>11578000</v>
       </c>
       <c r="K61" s="3">
         <v>11578000</v>
       </c>
       <c r="L61" s="3">
+        <v>11578000</v>
+      </c>
+      <c r="M61" s="3">
         <v>14494000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14497000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14475000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15921000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15893000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18323000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20331000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>20336000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>25625000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>25684000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>25725000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>28222000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>30471000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>30634000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19829000</v>
+      </c>
+      <c r="E62" s="3">
         <v>19882000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21046000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20947000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>19897000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19658000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>20291000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>20024000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18171000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18311000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18975000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18035000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16649000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16301000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16844000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>18214000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>18369000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>18539000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>10004000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>10373000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9628000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9251000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9023000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4278,8 +4426,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4349,8 +4500,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4420,79 +4574,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>52397000</v>
+      </c>
+      <c r="E66" s="3">
         <v>54766000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>53280000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>56222000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>53691000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>56480000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>56846000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>56933000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>55686000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>54893000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>58069000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>64222000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>60483000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>61673000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>61581000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>65580000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>67347000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>79528000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>64972000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>63681000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>60568000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>62437000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>62881000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4518,8 +4678,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4589,8 +4750,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4660,8 +4824,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4731,8 +4898,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4802,79 +4972,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-724000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2006000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>553000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-654000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1456000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2351000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2756000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2763000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3874000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4384000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5083000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5903000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2877000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>538000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3169000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1233000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3709000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7364000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>20647000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>20838000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>20721000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>20027000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>19694000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4944,8 +5120,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5015,8 +5194,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5086,79 +5268,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>40400000</v>
+      </c>
+      <c r="E76" s="3">
         <v>39496000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>42701000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>41275000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>40205000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>39121000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>38157000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>37920000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35708000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>35533000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>34423000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>33571000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36804000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>40789000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>43848000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>43204000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>46661000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>51982000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>65550000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>66137000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>65382000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>63811000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>63406000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5228,155 +5416,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44590</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44499</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44317</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44219</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44128</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44037</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43946</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43855</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43764</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43673</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43582</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43491</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43400</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43309</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43218</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43127</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43036</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42945</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42854</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42763</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3044000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2973000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2980000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3009000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2863000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2545000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2174000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2636000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2774000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2878000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2926000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2206000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3044000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2822000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3549000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3803000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2691000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8778000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2394000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2424000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2515000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2348000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5402,79 +5599,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>478000</v>
+      </c>
+      <c r="E83" s="3">
         <v>516000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>533000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>489000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>486000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>436000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>451000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>444000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>446000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>457000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>461000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>464000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>481000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>487000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>465000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>516000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>564000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>546000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>566000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>578000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>560000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>549000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5544,8 +5745,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5615,8 +5819,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5686,8 +5893,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5757,8 +5967,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5828,79 +6041,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3661000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2461000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3427000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4504000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3880000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2974000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4096000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3802000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4237000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3800000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3587000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3942000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4329000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3797000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3763000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4100000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2416000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4070000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3080000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4001000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3373000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3772000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2730000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5926,79 +6145,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-110000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-122000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-162000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-172000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-187000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-171000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-208000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-171000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-189000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-202000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-208000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-228000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-261000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-212000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-214000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-241000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-211000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-168000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-208000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-230000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-251000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-275000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6068,8 +6291,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6139,79 +6365,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>653000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1051000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1020000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>348000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3105000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>182000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2710000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>499000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>236000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>843000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1922000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2689000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5606000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3867000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2675000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>8069000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>5760000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>3990000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2495000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>695000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1710000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>418000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-5396000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6237,79 +6469,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1555000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1541000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1561000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1562000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1560000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1521000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1520000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1525000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1519000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-1486000</v>
       </c>
       <c r="M96" s="3">
         <v>-1486000</v>
       </c>
       <c r="N96" s="3">
+        <v>-1486000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1490000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1519000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1470000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1500000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1535000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1572000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1425000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1436000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1448000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1451000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1304000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1308000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6379,8 +6615,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6450,8 +6689,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6521,79 +6763,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4097000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4399000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3970000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2269000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5219000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2178000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2859000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2602000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4757000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8668000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5132000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-9541000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6271000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6945000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-9954000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-19081000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1479000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1250000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1104000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4445000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1875000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>3618000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6663,75 +6911,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-887000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1563000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2583000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4444000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>978000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-987000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1442000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1871000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-114000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3159000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1499000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>394000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1393000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-507000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2215000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10905000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6581000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-665000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3592000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2782000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2315000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>952000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>CSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,318 +665,330 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44590</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44499</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44317</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44219</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44128</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44037</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43946</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43855</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43764</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43673</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43582</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43491</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43400</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43309</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43218</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43127</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43036</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42945</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42854</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42763</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13102000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12835000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12720000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12900000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13126000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12803000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11960000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11929000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12154000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11983000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12005000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13159000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13428000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12958000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12446000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13072000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12844000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12463000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11887000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12136000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12133000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11940000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11580000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>12352000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5077000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4714000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4671000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4847000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4782000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4618000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4176000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4348000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4470000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4212000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4241000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4695000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4854000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4785000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4673000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4926000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4922000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4704000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4389000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4709000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4587000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4422000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4304000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4468000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8025000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8121000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8049000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8053000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8344000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8185000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7784000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7581000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7684000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7771000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7764000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8464000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8574000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8173000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7773000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8146000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7922000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7759000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7498000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7427000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7546000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>7518000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>7276000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>7884000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,82 +1015,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1682000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1708000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1670000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1714000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1713000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1697000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1527000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1612000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1565000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1546000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1570000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1666000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1753000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1659000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1557000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1608000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1626000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1590000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1549000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1567000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1499000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1507000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1508000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1545000</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1151,156 +1167,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="3">
         <v>6000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>22000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>23000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>24000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>57000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>230000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>595000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>128000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>127000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>41000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>181000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>29000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>19000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>168000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>65000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>42000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>93000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>103000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>161000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>152000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>70000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>133000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>411000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E15" s="3">
         <v>77000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>79000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>84000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>79000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>61000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>39000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>36000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>33000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>34000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>38000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>36000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>38000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>39000</v>
       </c>
       <c r="Q15" s="3">
         <v>39000</v>
       </c>
       <c r="R15" s="3">
+        <v>39000</v>
+      </c>
+      <c r="S15" s="3">
         <v>34000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>33000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>67000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>60000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>61000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>58000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>59000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>64000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1324,156 +1349,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>9668000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9225000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9233000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9462000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9551000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9338000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8737000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9359000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8907000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8569000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8625000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9580000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9738000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9445000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9235000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9267000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9498000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9329000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8814000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9380000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9099000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8771000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8687000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9475000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3434000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3610000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3487000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3438000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3575000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3465000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3223000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2570000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3247000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3414000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3380000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3579000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3690000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3513000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3211000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3805000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3346000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3134000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3073000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2756000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3034000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3169000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2893000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2877000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1500,378 +1532,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E20" s="3">
         <v>281000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>204000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>308000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>258000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>237000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>145000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>223000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>178000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>162000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>313000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>286000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>220000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>315000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>358000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>325000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>470000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>355000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>406000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>441000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>367000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>242000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>289000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>3939000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4369000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4207000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4279000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4322000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4188000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3804000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3244000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3869000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4022000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4150000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4326000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4374000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4309000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4056000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4595000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4332000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4053000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4025000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3763000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3979000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3971000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3731000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3749000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E22" s="3">
         <v>90000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>88000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>89000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>98000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>111000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>113000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>112000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>119000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>132000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>159000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>179000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>206000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>213000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>226000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>221000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>224000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>236000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>247000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>235000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>221000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>220000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>219000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>197000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3416000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3801000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3603000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3657000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3735000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3591000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3255000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2681000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3306000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3444000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3534000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3686000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3704000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3615000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3343000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3909000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3592000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3253000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3232000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2962000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3180000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3191000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2963000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2953000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>601000</v>
+      </c>
+      <c r="E24" s="3">
         <v>757000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>630000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>677000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>726000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>728000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>710000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>507000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>670000</v>
       </c>
       <c r="L24" s="3">
         <v>670000</v>
       </c>
       <c r="M24" s="3">
+        <v>670000</v>
+      </c>
+      <c r="N24" s="3">
         <v>656000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>760000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>684000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>571000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>463000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>360000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>489000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>562000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>910000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>568000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>756000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>676000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>615000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>631000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1944,156 +1992,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2815000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3044000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2973000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2980000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3009000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2863000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2545000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2174000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2636000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2774000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2878000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2926000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3020000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3044000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2880000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3549000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3103000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2691000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2322000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2394000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2424000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2515000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2348000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2815000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3044000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2973000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2980000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3009000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2863000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2545000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2174000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2636000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2774000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2878000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2926000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3020000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3044000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2880000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3549000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3103000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2691000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2322000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2394000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2424000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2515000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2348000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2166,8 +2223,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2204,29 +2264,29 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3">
         <v>-814000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-58000</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>700000</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-11100000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2240,8 +2300,11 @@
       <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2314,8 +2377,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2388,156 +2454,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-75000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-281000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-204000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-308000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-258000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-237000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-145000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-223000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-178000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-162000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-313000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-286000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-220000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-315000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-358000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-325000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-470000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-355000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-406000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-441000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-367000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-242000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-289000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-273000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2815000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3044000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2973000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2980000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3009000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2863000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2545000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2174000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2636000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2774000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2878000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2926000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2206000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3044000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2822000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3549000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3803000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2691000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8778000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2394000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2424000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2515000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2348000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2610,161 +2685,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2815000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3044000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2973000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2980000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3009000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2863000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2545000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2174000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2636000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2774000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2878000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2926000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2206000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3044000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2822000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3549000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3803000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2691000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8778000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2394000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2424000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2515000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2348000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44590</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44499</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44317</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44219</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44128</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44037</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43946</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43855</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43764</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43673</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43582</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43491</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43400</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43309</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43218</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43127</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43036</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42945</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42854</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42763</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2791,8 +2875,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2819,674 +2904,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7079000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6959000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6742000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7629000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9175000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7356000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11800000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10825000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11809000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10367000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8475000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8587000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11750000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10251000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9835000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8410000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8934000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6719000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>17624000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11043000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11708000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8116000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>10898000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>8583000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>12188000</v>
+      </c>
+      <c r="E42" s="3">
         <v>13156000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>14382000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>15727000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>15343000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>16229000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>18795000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>19190000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>17610000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>18208000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>18587000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>19448000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>21663000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>24392000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>30548000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>34183000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>37614000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>47712000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>56059000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>60545000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>58784000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>59858000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>60947000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>62385000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11827000</v>
+      </c>
+      <c r="E43" s="3">
         <v>10887000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11400000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10776000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11546000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10373000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10534000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10285000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11723000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10372000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9157000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9904000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10586000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8824000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8802000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9387000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>10503000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9142000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8888000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9244000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>10002000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9274000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8954000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>9346000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2568000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2231000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2059000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1832000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1559000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1579000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1436000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1303000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1282000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1212000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1353000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1344000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1383000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1513000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1701000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1572000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1846000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1900000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1896000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1693000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1616000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1366000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1264000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1176000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3055000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2748000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2216000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1624000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1489000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1523000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1346000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1386000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1149000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1148000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2481000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2433000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2373000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2331000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2231000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2134000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2940000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1668000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1583000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1555000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1593000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1348000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1329000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1651000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>36717000</v>
+      </c>
+      <c r="E46" s="3">
         <v>35981000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>36799000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>37588000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>39112000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>37060000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>43911000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>42989000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>43573000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>41307000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>40053000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>41716000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>47755000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>47311000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>53117000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>55686000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>61837000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>67141000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>86050000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>84080000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>83703000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>79962000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>83392000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>83141000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4009000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3959000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4024000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4546000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4884000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5068000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5100000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5516000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6992000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6024000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5973000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6048000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6158000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6112000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5813000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5884000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5978000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5884000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5895000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5823000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>5721000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>5518000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>5671000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>5775000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3070000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3218000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3356000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3433000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3295000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3360000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3365000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3374000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3465000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3621000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3769000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2789000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2834000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2931000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2956000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3006000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3082000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3113000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3202000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3322000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3395000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3422000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3499000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>40873000</v>
+      </c>
+      <c r="E49" s="3">
         <v>41263000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>41758000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>42152000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>41787000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>41406000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>36195000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>36116000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>35382000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>35197000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>35518000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>35685000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>35730000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>35942000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>35563000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>36102000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>34258000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>34335000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>32865000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>32910000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>32305000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>32220000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>28939000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>29120000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3559,8 +3672,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3633,82 +3749,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9403000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8524000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8463000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8339000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8281000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7067000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7035000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7017000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5532000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5401000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5261000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5274000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5361000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5088000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5038000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4801000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3705000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3566000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3587000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4507000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4767000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4855000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4824000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4752000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3781,82 +3903,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>94002000</v>
+      </c>
+      <c r="E54" s="3">
         <v>92797000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>94262000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>95981000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>97497000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>93896000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>95601000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>95003000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>94853000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>91394000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>90426000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>92492000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>97793000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>97287000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>102462000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>105429000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>108784000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>114008000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>131510000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>130522000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>129818000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>125950000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>126248000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>126287000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3883,8 +4011,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3911,452 +4040,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2281000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2289000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2101000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2261000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2362000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2440000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1867000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2294000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2218000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2393000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1935000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2016000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2059000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2022000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1655000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1805000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1904000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1552000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1060000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1155000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1385000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1219000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>957000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>996000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1099000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2502000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>506000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2508000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2000000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5000000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5002000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3005000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4506000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1499000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4000000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10191000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7777000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9737000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7241000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5238000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7736000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>13741000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>10239000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7992000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4248000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4451000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4155000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22260000</v>
+      </c>
+      <c r="E59" s="3">
         <v>20861000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21312000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20471000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21387000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19822000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>20401000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19695000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20108000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19038000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18654000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18581000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19462000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18114000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>18087000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17368000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>19893000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>19354000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>20563000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17890000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>18206000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>17251000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>17300000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>18066000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25640000</v>
+      </c>
+      <c r="E60" s="3">
         <v>24150000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>25915000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>23238000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>26257000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>24262000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>27268000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>26991000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>25331000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>25937000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22088000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>24597000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>31712000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>27913000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>29479000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>26414000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>27035000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>28642000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>35364000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>29284000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>27583000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>22718000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>22708000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>23217000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8416000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8418000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8969000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8996000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9018000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9532000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9554000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9564000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>11578000</v>
       </c>
       <c r="L61" s="3">
         <v>11578000</v>
       </c>
       <c r="M61" s="3">
+        <v>11578000</v>
+      </c>
+      <c r="N61" s="3">
         <v>14494000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14497000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14475000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15921000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15893000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18323000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>20331000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>20336000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>25625000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>25684000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>25725000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>28222000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>30471000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>30634000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20173000</v>
+      </c>
+      <c r="E62" s="3">
         <v>19829000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19882000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21046000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>20947000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19897000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>19658000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>20291000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20024000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18171000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18311000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18975000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18035000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16649000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16301000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16844000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>18214000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>18369000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>18539000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>10004000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>10373000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9628000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9251000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9023000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4429,8 +4577,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4503,8 +4654,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4577,82 +4731,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>54229000</v>
+      </c>
+      <c r="E66" s="3">
         <v>52397000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>54766000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>53280000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>56222000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>53691000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>56480000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>56846000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>56933000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>55686000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>54893000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>58069000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>64222000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>60483000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>61673000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>61581000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>65580000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>67347000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>79528000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>64972000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>63681000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>60568000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>62437000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>62881000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4679,8 +4839,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4753,8 +4914,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4827,8 +4991,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4901,8 +5068,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4975,82 +5145,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1319000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-724000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2006000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>553000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-654000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1456000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2351000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2756000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2763000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3874000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4384000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5083000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5903000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2877000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>538000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3169000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1233000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3709000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7364000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>20647000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>20838000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>20721000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>20027000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>19694000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5123,8 +5299,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5197,8 +5376,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5271,82 +5453,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>39773000</v>
+      </c>
+      <c r="E76" s="3">
         <v>40400000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>39496000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>42701000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>41275000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>40205000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>39121000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>38157000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>37920000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>35708000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>35533000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>34423000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>33571000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36804000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>40789000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>43848000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>43204000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>46661000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>51982000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>65550000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>66137000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>65382000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>63811000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>63406000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5419,161 +5607,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44590</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44499</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44317</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44219</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44128</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44037</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43946</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43855</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43764</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43673</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43582</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43491</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43400</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43309</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43218</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43127</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43036</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42945</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42854</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42763</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2815000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3044000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2973000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2980000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3009000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2863000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2545000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2174000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2636000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2774000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2878000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2926000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2206000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3044000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2822000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3549000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3803000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2691000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8778000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2394000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2424000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2515000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2348000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5600,82 +5797,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>430000</v>
+      </c>
+      <c r="E83" s="3">
         <v>478000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>516000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>533000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>489000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>486000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>436000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>451000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>444000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>446000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>457000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>461000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>464000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>481000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>487000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>465000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>516000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>564000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>546000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>566000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>578000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>560000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>549000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5748,8 +5949,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5822,8 +6026,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5896,8 +6103,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5970,8 +6180,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6044,82 +6257,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3677000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3661000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2461000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3427000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4504000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3880000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2974000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4096000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3802000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4237000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3800000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3587000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3942000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4329000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3797000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3763000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4100000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2416000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4070000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3080000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4001000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3373000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3772000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2730000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6146,82 +6365,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-106000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-110000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-122000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-162000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-172000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-187000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-171000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-208000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-171000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-189000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-202000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-208000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-228000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-261000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-212000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-214000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-241000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-211000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-168000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-208000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-230000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-251000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-275000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6294,8 +6517,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6368,82 +6594,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>869000</v>
+      </c>
+      <c r="E94" s="3">
         <v>653000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1051000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1020000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>348000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3105000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>182000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2710000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>499000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>236000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>843000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1922000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2689000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>5606000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3867000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2675000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>8069000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>5760000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>3990000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2495000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>695000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1710000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>418000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-5396000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6470,82 +6702,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1567000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1555000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1541000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1561000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1562000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1560000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1521000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1520000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1525000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1519000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-1486000</v>
       </c>
       <c r="N96" s="3">
         <v>-1486000</v>
       </c>
       <c r="O96" s="3">
+        <v>-1486000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1490000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1519000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1470000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1500000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1535000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1572000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1425000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1436000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1448000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1451000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1304000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1308000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6618,8 +6854,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6692,8 +6931,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6766,82 +7008,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3496000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4097000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4399000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3970000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2269000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5219000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2178000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2859000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2602000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4757000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8668000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5132000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-9541000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6271000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6945000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-9954000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-19081000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1479000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1250000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1104000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4445000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1875000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>3618000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6914,78 +7162,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>870000</v>
+      </c>
+      <c r="E102" s="3">
         <v>217000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-887000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1563000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2583000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4444000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>978000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-987000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1442000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1871000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-114000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3159000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1499000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>394000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1393000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-507000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2215000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-10905000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>6581000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-665000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3592000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2782000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2315000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>952000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSCO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,330 +665,354 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44863</v>
+      </c>
+      <c r="F7" s="2">
         <v>44772</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44590</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44499</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44317</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44219</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44128</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44037</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43946</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43764</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43673</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43582</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43491</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43400</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43309</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43218</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43127</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43036</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42945</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42854</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42763</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13592000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>13632000</v>
+      </c>
+      <c r="F8" s="3">
         <v>13102000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>12835000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>12720000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>12900000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>13126000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>12803000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>11960000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>11929000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>12154000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>11983000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>12005000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>13159000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>13428000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>12958000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>12446000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>13072000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>12844000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>12463000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>11887000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>12136000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>12133000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>11940000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>11580000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>12352000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5165000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5286000</v>
+      </c>
+      <c r="F9" s="3">
         <v>5077000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>4714000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>4671000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>4847000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>4782000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>4618000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4176000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4348000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4470000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>4212000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4241000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4695000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>4854000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>4785000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4673000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>4926000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>4922000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>4704000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>4389000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>4709000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>4587000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>4422000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>4304000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>4468000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8427000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8346000</v>
+      </c>
+      <c r="F10" s="3">
         <v>8025000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>8121000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>8049000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>8053000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>8344000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>8185000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>7784000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>7581000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>7684000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>7771000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>7764000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>8464000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>8574000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>8173000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>7773000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>8146000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>7922000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>7759000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>7498000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>7427000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>7546000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>7518000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>7276000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>7884000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,85 +1040,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1855000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1781000</v>
+      </c>
+      <c r="F12" s="3">
         <v>1682000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1708000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1670000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1714000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1713000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1697000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1527000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1612000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1565000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1546000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1570000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1666000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1753000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1659000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1557000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1608000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>1626000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>1590000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>1549000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>1567000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>1499000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>1507000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>1508000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>1545000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1170,162 +1202,180 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>249000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F14" s="3">
         <v>4000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>6000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>22000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>23000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>24000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>57000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>230000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>595000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>128000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>127000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>41000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>181000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>29000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>19000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>168000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>65000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>42000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>93000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>103000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>161000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>152000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>70000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>133000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>411000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>71000</v>
+      </c>
+      <c r="F15" s="3">
         <v>73000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>77000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>79000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>84000</v>
       </c>
       <c r="H15" s="3">
         <v>79000</v>
       </c>
       <c r="I15" s="3">
+        <v>84000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>79000</v>
+      </c>
+      <c r="K15" s="3">
         <v>61000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>39000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>36000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>33000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>34000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>38000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>36000</v>
       </c>
       <c r="P15" s="3">
         <v>38000</v>
       </c>
       <c r="Q15" s="3">
+        <v>36000</v>
+      </c>
+      <c r="R15" s="3">
+        <v>38000</v>
+      </c>
+      <c r="S15" s="3">
         <v>39000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>39000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>34000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>33000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>67000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>60000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>61000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>58000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>59000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>64000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1350,162 +1400,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>10300000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10092000</v>
+      </c>
+      <c r="F17" s="3">
         <v>9668000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>9225000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>9233000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>9462000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>9551000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>9338000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8737000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>9359000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>8907000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>8569000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>8625000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>9580000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>9738000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>9445000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>9235000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>9267000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>9498000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>9329000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>8814000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>9380000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>9099000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>8771000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>8687000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>9475000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3292000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3540000</v>
+      </c>
+      <c r="F18" s="3">
         <v>3434000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>3610000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>3487000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3438000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>3575000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>3465000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3223000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2570000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>3247000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3414000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>3380000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3579000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>3690000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>3513000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>3211000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>3805000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>3346000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>3134000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>3073000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>2756000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>3034000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>3169000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>2893000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>2877000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1533,393 +1597,425 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>35000</v>
+      </c>
+      <c r="F20" s="3">
         <v>75000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>281000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>204000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>308000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>258000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>237000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>145000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>223000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>178000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>162000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>313000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>286000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>220000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>315000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>358000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>325000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>470000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>355000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>406000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>441000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>367000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>242000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>289000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>3960000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3990000</v>
+      </c>
+      <c r="F21" s="3">
         <v>3939000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>4369000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>4207000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>4279000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>4322000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>4188000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>3804000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>3244000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>3869000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>4022000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>4150000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>4326000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>4374000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>4309000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>4056000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>4595000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>4332000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>4053000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>4025000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>3763000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>3979000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>3971000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>3731000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>3749000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F22" s="3">
         <v>93000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>90000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>88000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>89000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>98000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>111000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>113000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>112000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>119000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>132000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>159000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>179000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>206000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>213000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>226000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>221000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>224000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>236000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>247000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>235000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>221000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>220000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>219000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>197000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3415000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3475000</v>
+      </c>
+      <c r="F23" s="3">
         <v>3416000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3801000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>3603000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3657000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>3735000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3591000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3255000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2681000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>3306000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3444000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3534000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>3686000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>3704000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>3615000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>3343000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>3909000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>3592000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>3253000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>3232000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>2962000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>3180000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>3191000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>2963000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>2953000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>642000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>805000</v>
+      </c>
+      <c r="F24" s="3">
         <v>601000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>757000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>630000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>677000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>726000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>728000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>710000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>507000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>670000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>670000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>656000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>760000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>684000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>571000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>463000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>360000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>489000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>562000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>910000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>568000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>756000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>676000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>615000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>631000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1995,162 +2091,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2773000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2670000</v>
+      </c>
+      <c r="F26" s="3">
         <v>2815000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>3044000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2973000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2980000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>3009000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2863000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2545000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2174000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2636000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2774000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2878000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2926000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>3020000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>3044000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>2880000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>3549000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>3103000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>2691000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>2322000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>2394000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>2424000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>2515000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>2348000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2773000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2670000</v>
+      </c>
+      <c r="F27" s="3">
         <v>2815000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3044000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2973000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2980000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3009000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2863000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2545000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2174000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2636000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2774000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2878000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2926000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>3020000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>3044000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>2880000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>3549000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>3103000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>2691000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>2322000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>2394000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>2424000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>2515000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>2348000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2226,31 +2340,37 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -2267,32 +2387,32 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3">
         <v>-814000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-58000</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>700000</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-11100000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>24</v>
@@ -2303,8 +2423,14 @@
       <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2380,8 +2506,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2457,162 +2589,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-230000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-75000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-281000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-204000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-308000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-258000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-237000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-145000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-223000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-178000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-162000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-313000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-286000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-220000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-315000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-358000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-325000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-470000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-355000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-406000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-441000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-367000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-242000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-289000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-273000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2773000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2670000</v>
+      </c>
+      <c r="F33" s="3">
         <v>2815000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>3044000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2973000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2980000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>3009000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2863000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2545000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2174000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2636000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2774000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2878000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2926000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>2206000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>3044000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>2822000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>3549000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>3803000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>2691000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-8778000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>2394000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>2424000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>2515000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>2348000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2688,167 +2838,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2773000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2670000</v>
+      </c>
+      <c r="F35" s="3">
         <v>2815000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>3044000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2973000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2980000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>3009000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2863000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2545000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2174000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2636000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2774000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2878000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2926000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>2206000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>3044000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>2822000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>3549000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>3803000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>2691000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-8778000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>2394000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>2424000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>2515000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>2348000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44863</v>
+      </c>
+      <c r="F38" s="2">
         <v>44772</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44590</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44499</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44317</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44219</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44128</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44037</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43946</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43764</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43673</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43582</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43491</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43400</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43309</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43218</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43127</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43036</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42945</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42854</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42763</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2876,8 +3044,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2905,701 +3075,757 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9009000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7292000</v>
+      </c>
+      <c r="F41" s="3">
         <v>7079000</v>
       </c>
-      <c r="E41" s="3">
-        <v>6959000</v>
-      </c>
-      <c r="F41" s="3">
-        <v>6742000</v>
-      </c>
       <c r="G41" s="3">
-        <v>7629000</v>
+        <v>6952000</v>
       </c>
       <c r="H41" s="3">
+        <v>6731000</v>
+      </c>
+      <c r="I41" s="3">
+        <v>7619000</v>
+      </c>
+      <c r="J41" s="3">
         <v>9175000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>7356000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>11800000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>10825000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>11809000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>10367000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>8475000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>8587000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>11750000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>10251000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>9835000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>8410000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>8934000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>6719000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>17624000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>11043000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>11708000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>8116000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>10898000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>8583000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>13052000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>12492000</v>
+      </c>
+      <c r="F42" s="3">
         <v>12188000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>13156000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>14382000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>15727000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>15343000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>16229000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>18795000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>19190000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>17610000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>18208000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>18587000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>19448000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>21663000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>24392000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>30548000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>34183000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>37614000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>47712000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>56059000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>60545000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>58784000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>59858000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>60947000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>62385000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10194000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>10422000</v>
+      </c>
+      <c r="F43" s="3">
         <v>11827000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>10887000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>11400000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>10776000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>11546000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>10373000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>10534000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>10285000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>11723000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>10372000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>9157000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>9904000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>10586000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>8824000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>8802000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>9387000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>10503000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>9142000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>8888000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>9244000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>10002000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>9274000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>8954000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>9346000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3140000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2664000</v>
+      </c>
+      <c r="F44" s="3">
         <v>2568000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2231000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2059000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1832000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1559000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1579000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1436000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1303000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1282000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1212000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1353000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1344000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1383000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1513000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1701000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1572000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1846000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1900000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1896000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1693000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>1616000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>1366000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>1264000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>1176000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3120000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3271000</v>
+      </c>
+      <c r="F45" s="3">
         <v>3055000</v>
       </c>
-      <c r="E45" s="3">
-        <v>2748000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>2216000</v>
-      </c>
       <c r="G45" s="3">
-        <v>1624000</v>
+        <v>2755000</v>
       </c>
       <c r="H45" s="3">
+        <v>2227000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1634000</v>
+      </c>
+      <c r="J45" s="3">
         <v>1489000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1523000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1346000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1386000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1149000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1148000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2481000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2433000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2373000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2331000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2231000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>2134000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>2940000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1668000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1583000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1555000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>1593000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>1348000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>1329000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>1651000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>38515000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>36141000</v>
+      </c>
+      <c r="F46" s="3">
         <v>36717000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>35981000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>36799000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>37588000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>39112000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>37060000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>43911000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>42989000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>43573000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>41307000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>40053000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>41716000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>47755000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>47311000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>53117000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>55686000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>61837000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>67141000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>86050000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>84080000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>83703000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>79962000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>83392000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>83141000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3554000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3618000</v>
+      </c>
+      <c r="F47" s="3">
         <v>4009000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>3959000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>4024000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>4546000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>4884000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>5068000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>5100000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>5516000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>6992000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>6024000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>5973000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>6048000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>6158000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>6112000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>5813000</v>
-      </c>
-      <c r="S47" s="3">
-        <v>5884000</v>
-      </c>
-      <c r="T47" s="3">
-        <v>5978000</v>
       </c>
       <c r="U47" s="3">
         <v>5884000</v>
       </c>
       <c r="V47" s="3">
+        <v>5978000</v>
+      </c>
+      <c r="W47" s="3">
+        <v>5884000</v>
+      </c>
+      <c r="X47" s="3">
         <v>5895000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>5823000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>5721000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>5518000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>5671000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>5775000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2942000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2901000</v>
+      </c>
+      <c r="F48" s="3">
         <v>3000000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3070000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3218000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3356000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3433000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3295000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3360000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3365000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3374000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3465000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3621000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3769000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2789000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2834000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2931000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2956000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>3006000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>3082000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>3113000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>3202000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>3322000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>3395000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>3422000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>3499000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>40522000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>40520000</v>
+      </c>
+      <c r="F49" s="3">
         <v>40873000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>41263000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>41758000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>42152000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>41787000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>41406000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>36195000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>36116000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>35382000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>35197000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>35518000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>35685000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>35730000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>35942000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>35563000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>36102000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>34258000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>34335000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>32865000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>32910000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>32305000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>32220000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>28939000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>29120000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3675,8 +3901,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3752,85 +3984,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10307000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9874000</v>
+      </c>
+      <c r="F52" s="3">
         <v>9403000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>8524000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>8463000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>8339000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>8281000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>7067000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>7035000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>7017000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>5532000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>5401000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>5261000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>5274000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>5361000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>5088000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>5038000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>4801000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>3705000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>3566000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>3587000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>4507000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>4767000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>4855000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>4824000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>4752000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3906,85 +4150,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>95840000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>93054000</v>
+      </c>
+      <c r="F54" s="3">
         <v>94002000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>92797000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>94262000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>95981000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>97497000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>93896000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>95601000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>95003000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>94853000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>91394000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>90426000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>92492000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>97793000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>97287000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>102462000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>105429000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>108784000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>114008000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>131510000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>130522000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>129818000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>125950000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>126248000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>126287000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4012,8 +4268,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4041,470 +4299,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2329000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2316000</v>
+      </c>
+      <c r="F57" s="3">
         <v>2281000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2289000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2101000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2261000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2362000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2440000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1867000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2294000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2218000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2393000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1935000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2016000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2059000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2022000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1655000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1805000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1904000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1552000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1060000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1155000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1385000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1219000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>957000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>996000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1250000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1249000</v>
+      </c>
+      <c r="F58" s="3">
         <v>1099000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1000000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2502000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>506000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2508000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2000000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5000000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5002000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3005000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4506000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1499000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4000000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>10191000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>7777000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>9737000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>7241000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>5238000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>7736000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>13741000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>10239000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>7992000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>4248000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>4451000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>4155000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23673000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>21331000</v>
+      </c>
+      <c r="F59" s="3">
         <v>22260000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>20861000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>21312000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>20471000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>21387000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>19822000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>20401000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>19695000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>20108000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>19038000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>18654000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>18581000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>19462000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>18114000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>18087000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>17368000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>19893000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>19354000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>20563000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>17890000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>18206000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>17251000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>17300000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>18066000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27252000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>24896000</v>
+      </c>
+      <c r="F60" s="3">
         <v>25640000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>24150000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>25915000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>23238000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>26257000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>24262000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>27268000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>26991000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>25331000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>25937000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>22088000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>24597000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>31712000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>27913000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>29479000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>26414000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>27035000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>28642000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>35364000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>29284000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>27583000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>22718000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>22708000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>23217000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7637000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7629000</v>
+      </c>
+      <c r="F61" s="3">
         <v>8416000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>8418000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>8969000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>8996000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>9018000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>9532000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>9554000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>9564000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>11578000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>11578000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>14494000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>14497000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>14475000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>15921000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>15893000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>18323000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>20331000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>20336000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>25625000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>25684000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>25725000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>28222000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>30471000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>30634000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19477000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>20257000</v>
+      </c>
+      <c r="F62" s="3">
         <v>20173000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>19829000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>19882000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>21046000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>20947000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>19897000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>19658000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>20291000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>20024000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>18171000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>18311000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>18975000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>18035000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>16649000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>16301000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>16844000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>18214000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>18369000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>18539000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>10004000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>10373000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>9628000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>9251000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>9023000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4580,8 +4876,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4657,8 +4959,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4734,85 +5042,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>54366000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>52782000</v>
+      </c>
+      <c r="F66" s="3">
         <v>54229000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>52397000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>54766000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>53280000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>56222000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>53691000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>56480000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>56846000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>56933000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>55686000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>54893000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>58069000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>64222000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>60483000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>61673000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>61581000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>65580000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>67347000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>79528000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>64972000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>63681000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>60568000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>62437000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>62881000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4840,8 +5160,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4917,8 +5239,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4994,8 +5322,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5071,8 +5405,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5148,85 +5488,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-364000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-594000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1319000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-724000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2006000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>553000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-654000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1456000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2351000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2756000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2763000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3874000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-4384000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-5083000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-5903000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2877000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>538000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>3169000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1233000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>3709000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>7364000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>20647000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>20838000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>20721000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>20027000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>19694000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5302,8 +5654,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5379,8 +5737,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5456,85 +5820,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41474000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>40272000</v>
+      </c>
+      <c r="F76" s="3">
         <v>39773000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>40400000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>39496000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>42701000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>41275000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>40205000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>39121000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>38157000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>37920000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>35708000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>35533000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>34423000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>33571000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>36804000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>40789000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>43848000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>43204000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>46661000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>51982000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>65550000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>66137000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>65382000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>63811000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>63406000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5610,167 +5986,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44863</v>
+      </c>
+      <c r="F80" s="2">
         <v>44772</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44590</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44499</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44317</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44219</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44128</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44037</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43946</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43764</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43673</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43582</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43491</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43400</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43309</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43218</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43127</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43036</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42945</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42854</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42763</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2773000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2670000</v>
+      </c>
+      <c r="F81" s="3">
         <v>2815000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>3044000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2973000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2980000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>3009000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2863000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2545000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2174000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2636000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2774000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2878000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2926000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>2206000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>3044000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>2822000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>3549000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>3803000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>2691000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-8778000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>2394000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>2424000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>2515000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>2348000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5798,85 +6192,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>438000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>415000</v>
+      </c>
+      <c r="F83" s="3">
         <v>430000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>478000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>516000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>533000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>489000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>486000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>436000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>451000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>444000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>446000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>457000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>461000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>464000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>481000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>487000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>465000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>516000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>564000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>546000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>566000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>578000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>560000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>549000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5952,8 +6354,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6029,8 +6437,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6106,8 +6520,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6183,8 +6603,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6260,85 +6686,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4739000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3962000</v>
+      </c>
+      <c r="F89" s="3">
         <v>3677000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>3661000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2461000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>3427000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>4504000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>3880000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2974000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4096000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3802000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>4237000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>3800000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>3587000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>3942000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>4329000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>3797000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>3763000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>4100000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>2416000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>4070000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>3080000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>4001000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>3373000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>3772000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>2730000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6366,85 +6804,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-170000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-176000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-139000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-106000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-110000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-122000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-162000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-172000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-187000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-171000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-208000</v>
       </c>
       <c r="M91" s="3">
         <v>-171000</v>
       </c>
       <c r="N91" s="3">
+        <v>-208000</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="P91" s="3">
         <v>-189000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-202000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-208000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-228000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-261000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-212000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-214000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-241000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-211000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-168000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-208000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-230000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-251000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-275000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6520,8 +6966,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6597,85 +7049,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-494000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-799000</v>
+      </c>
+      <c r="F94" s="3">
         <v>869000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>653000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>1051000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1020000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>348000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3105000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>182000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2710000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>499000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>236000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>843000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>1922000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>2689000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>5606000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>3867000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>2675000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>8069000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>5760000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>3990000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-2495000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>695000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-1710000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>418000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-5396000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6703,85 +7167,93 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1560000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-1560000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1567000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-1555000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-1541000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-1561000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-1562000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-1560000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1521000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-1520000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-1525000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-1519000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-1486000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-1486000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-1490000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-1519000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-1470000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-1500000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-1535000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-1572000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-1425000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-1436000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-1448000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-1451000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-1304000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-1308000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6857,8 +7329,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6934,8 +7412,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7011,108 +7495,120 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2626000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2855000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-3496000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-4097000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-4399000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-3970000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-2269000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-5219000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2178000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-2859000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-2602000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-4757000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-8668000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-5132000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-9541000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-6271000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-6945000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-9954000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-19081000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-1479000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-1250000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-1104000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-4445000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-1875000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>3618000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>98000</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-95000</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -7165,81 +7661,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1717000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>213000</v>
+      </c>
+      <c r="F102" s="3">
         <v>870000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>217000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-887000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1563000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2583000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-4444000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>978000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-987000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1442000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1871000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-114000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-3159000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1499000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>394000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1393000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-507000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>2215000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-10905000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>6581000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-665000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>3592000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-2782000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>2315000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>952000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSCO_QTR_FIN.xlsx
@@ -1214,7 +1214,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>249000</v>
+        <v>246000</v>
       </c>
       <c r="E14" s="3">
         <v>-2000</v>
@@ -1229,7 +1229,7 @@
         <v>22000</v>
       </c>
       <c r="I14" s="3">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="J14" s="3">
         <v>24000</v>

--- a/AAII_Financials/Quarterly/CSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>CSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,354 +665,366 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45045</v>
+      </c>
+      <c r="E7" s="2">
         <v>44954</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44863</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44772</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44590</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44499</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44317</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44219</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44128</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44037</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43946</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43764</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43673</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43582</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43491</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43400</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43309</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43218</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43127</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43036</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42945</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42854</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42763</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14571000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13592000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13632000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13102000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12835000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12720000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12900000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13126000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12803000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11960000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11929000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12154000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11983000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12005000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13159000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13428000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12958000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12446000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>13072000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12844000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12463000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11887000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>12136000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>12133000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>11940000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>11580000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>12352000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5339000</v>
+      </c>
+      <c r="E9" s="3">
         <v>5165000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5286000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5077000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4714000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4671000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4847000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4782000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4618000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4176000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4348000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4470000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4212000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4241000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4695000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4854000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4785000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4673000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4926000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4922000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4704000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4389000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4709000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4587000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4422000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4304000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>4468000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9232000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8427000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8346000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8025000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8121000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8049000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8053000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8344000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8185000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7784000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7581000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7684000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7771000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7764000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8464000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8574000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8173000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7773000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8146000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7922000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7759000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>7498000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>7427000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>7546000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>7518000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>7276000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>7884000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1042,91 +1054,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1962000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1855000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1781000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1682000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1708000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1670000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1714000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1713000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1697000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1527000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1612000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1565000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1546000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1570000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1666000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1753000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1659000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1557000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1608000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1626000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1590000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1549000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1567000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1499000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1507000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1508000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1545000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1208,174 +1224,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E14" s="3">
         <v>246000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>22000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>24000</v>
       </c>
       <c r="J14" s="3">
         <v>24000</v>
       </c>
       <c r="K14" s="3">
+        <v>24000</v>
+      </c>
+      <c r="L14" s="3">
         <v>57000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>230000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>595000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>128000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>127000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>41000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>181000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>29000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>19000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>168000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>65000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>42000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>93000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>103000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>161000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>152000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>70000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>133000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>411000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>71000</v>
+        <v>70000</v>
       </c>
       <c r="E15" s="3">
         <v>71000</v>
       </c>
       <c r="F15" s="3">
+        <v>71000</v>
+      </c>
+      <c r="G15" s="3">
         <v>73000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>77000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>79000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>84000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>79000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>61000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>39000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>36000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>33000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>34000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>38000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>36000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>38000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>39000</v>
       </c>
       <c r="T15" s="3">
         <v>39000</v>
       </c>
       <c r="U15" s="3">
+        <v>39000</v>
+      </c>
+      <c r="V15" s="3">
         <v>34000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>33000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>67000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>60000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>61000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>58000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>59000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>64000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1402,174 +1427,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>10625000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10300000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10092000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9668000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9225000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9233000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9462000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9551000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9338000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8737000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9359000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8907000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8569000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8625000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9580000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9738000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9445000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9235000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9267000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9498000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9329000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8814000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9380000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9099000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8771000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>8687000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>9475000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3946000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3292000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3540000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3434000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3610000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3487000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3438000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3575000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3465000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3223000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2570000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3247000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3414000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3380000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3579000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3690000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3513000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3211000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3805000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3346000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3134000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3073000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2756000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3034000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3169000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2893000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2877000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1599,423 +1631,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E20" s="3">
         <v>230000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>35000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>75000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>281000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>204000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>308000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>258000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>237000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>145000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>223000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>178000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>162000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>313000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>286000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>220000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>315000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>358000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>325000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>470000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>355000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>406000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>441000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>367000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>242000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>289000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4517000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3960000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3990000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3939000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4369000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4207000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4279000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4322000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4188000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3804000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3244000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3869000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4022000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4150000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4326000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4374000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4309000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4056000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4595000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4332000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4053000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4025000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3763000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3979000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3971000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>3731000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>3749000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E22" s="3">
         <v>107000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>93000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>90000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>88000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>89000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>98000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>111000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>113000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>112000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>119000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>132000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>159000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>179000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>206000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>213000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>226000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>221000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>224000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>236000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>247000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>235000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>221000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>220000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>219000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>197000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3957000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3415000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3475000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3416000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3801000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3603000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3657000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3735000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3591000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3255000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2681000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3306000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3444000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3534000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3686000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3704000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3615000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3343000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3909000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3592000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3253000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3232000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2962000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3180000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3191000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2963000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2953000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>745000</v>
+      </c>
+      <c r="E24" s="3">
         <v>642000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>805000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>601000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>757000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>630000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>677000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>726000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>728000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>710000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>507000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>670000</v>
       </c>
       <c r="O24" s="3">
         <v>670000</v>
       </c>
       <c r="P24" s="3">
+        <v>670000</v>
+      </c>
+      <c r="Q24" s="3">
         <v>656000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>760000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>684000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>571000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>463000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>360000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>489000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>562000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>910000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>568000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>756000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>676000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>615000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>631000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2097,174 +2145,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>3212000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2773000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2670000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2815000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3044000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2973000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2980000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3009000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2863000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2545000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2174000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2636000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2774000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2878000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2926000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3020000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3044000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2880000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3549000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3103000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2691000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2322000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2394000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2424000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2515000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2348000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>3212000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2773000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2670000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2815000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3044000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2973000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2980000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3009000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2863000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2545000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2174000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2636000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2774000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2878000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2926000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3020000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3044000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2880000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3549000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3103000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2691000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2322000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2394000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2424000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2515000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2348000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2346,8 +2403,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2372,8 +2432,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -2393,29 +2453,29 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="3">
         <v>-814000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-58000</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>700000</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-11100000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>24</v>
@@ -2429,8 +2489,11 @@
       <c r="AC29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2512,8 +2575,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2595,174 +2661,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-230000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-35000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-75000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-281000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-204000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-308000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-258000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-237000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-145000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-223000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-178000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-162000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-313000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-286000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-220000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-315000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-358000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-325000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-470000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-355000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-406000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-441000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-367000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-242000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-289000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-273000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3212000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2773000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2670000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2815000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3044000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2973000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2980000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3009000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2863000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2545000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2174000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2636000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2774000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2878000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2926000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2206000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3044000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2822000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3549000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3803000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2691000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-8778000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2394000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2424000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2515000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2348000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2844,179 +2919,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3212000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2773000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2670000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2815000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3044000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2973000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2980000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3009000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2863000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2545000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2174000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2636000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2774000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2878000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2926000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2206000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3044000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2822000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3549000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3803000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2691000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-8778000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2394000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2424000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2515000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2348000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45045</v>
+      </c>
+      <c r="E38" s="2">
         <v>44954</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44863</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44772</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44590</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44499</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44317</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44219</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44128</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44037</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43946</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43764</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43673</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43582</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43491</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43400</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43309</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43218</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43127</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43036</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42945</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42854</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42763</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3046,8 +3130,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3077,755 +3162,783 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8044000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9009000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7292000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7079000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6952000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6731000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7619000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9175000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7356000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11800000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10825000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11809000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10367000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8475000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8587000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11750000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10251000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9835000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8410000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8934000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6719000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>17624000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>11043000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>11708000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>8116000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>10898000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>8583000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>15244000</v>
+      </c>
+      <c r="E42" s="3">
         <v>13052000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>12492000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>12188000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>13156000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>14382000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>15727000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>15343000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16229000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>18795000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>19190000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>17610000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>18208000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>18587000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>19448000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>21663000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>24392000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>30548000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>34183000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>37614000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>47712000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>56059000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>60545000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>58784000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>59858000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>60947000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>62385000</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8507400</v>
+      </c>
+      <c r="E43" s="3">
         <v>10194000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10422000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11827000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10887000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11400000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10776000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11546000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10373000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10534000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10285000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11723000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10372000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9157000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9904000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>10586000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8824000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8802000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9387000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>10503000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9142000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8888000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>9244000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>10002000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>9274000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>8954000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>9346000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3474000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3140000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2664000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2568000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2231000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2059000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1832000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1559000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1579000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1436000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1303000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1282000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1212000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1353000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1344000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1383000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1513000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1701000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1572000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1846000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1900000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1896000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1693000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1616000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1366000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1264000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1176000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4680600</v>
+      </c>
+      <c r="E45" s="3">
         <v>3120000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3271000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3055000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2755000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2227000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1634000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1489000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1523000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1346000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1386000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1149000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1148000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2481000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2433000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2373000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2331000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2231000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2134000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2940000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1668000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1583000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1555000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1593000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1348000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1329000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1651000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>39950000</v>
+      </c>
+      <c r="E46" s="3">
         <v>38515000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>36141000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>36717000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>35981000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>36799000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>37588000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>39112000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>37060000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>43911000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>42989000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>43573000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>41307000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>40053000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>41716000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>47755000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>47311000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>53117000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>55686000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>61837000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>67141000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>86050000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>84080000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>83703000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>79962000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>83392000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>83141000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3393000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3554000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3618000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4009000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3959000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4024000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4546000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4884000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5068000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5100000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5516000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6992000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6024000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5973000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6048000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6158000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>6112000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5813000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5884000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5978000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>5884000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>5895000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>5823000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>5721000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>5518000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>5671000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>5775000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3064000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2942000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2901000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3000000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3070000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3218000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3356000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3433000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3295000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3360000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3365000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3374000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3465000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3621000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3769000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2789000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2834000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2931000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2956000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3006000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3082000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3113000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3202000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3322000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3395000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3422000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>3499000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>40335000</v>
+      </c>
+      <c r="E49" s="3">
         <v>40522000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>40520000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>40873000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>41263000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>41758000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>42152000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>41787000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>41406000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>36195000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>36116000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>35382000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>35197000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>35518000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>35685000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>35730000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>35942000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>35563000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>36102000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>34258000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>34335000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>32865000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>32910000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>32305000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>32220000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>28939000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>29120000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3907,8 +4020,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3990,91 +4106,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10787000</v>
+      </c>
+      <c r="E52" s="3">
         <v>10307000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9874000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9403000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8524000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8463000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8339000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8281000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7067000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7035000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7017000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5532000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5401000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5261000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5274000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5361000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5088000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5038000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4801000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3705000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3566000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3587000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4507000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4767000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>4855000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>4824000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>4752000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4156,91 +4278,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>97529000</v>
+      </c>
+      <c r="E54" s="3">
         <v>95840000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>93054000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>94002000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>92797000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>94262000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>95981000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>97497000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>93896000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>95601000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>95003000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>94853000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>91394000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>90426000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>92492000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>97793000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>97287000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>102462000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>105429000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>108784000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>114008000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>131510000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>130522000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>129818000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>125950000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>126248000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>126287000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4270,8 +4398,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4301,506 +4430,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2442000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2329000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2316000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2281000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2289000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2101000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2261000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2362000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2440000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1867000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2294000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2218000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2393000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1935000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2016000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2059000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2022000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1655000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1805000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1904000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1552000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1060000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1155000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1385000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1219000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>957000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>996000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1731000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1250000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1249000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1099000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1000000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2502000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>506000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2508000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2000000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5000000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5002000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3005000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4506000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1499000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4000000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10191000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7777000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9737000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7241000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5238000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7736000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>13741000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>10239000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>7992000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4248000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>4451000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>4155000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24546000</v>
+      </c>
+      <c r="E59" s="3">
         <v>23673000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21331000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>22260000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20861000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21312000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>20471000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21387000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19822000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20401000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19695000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>20108000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19038000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18654000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>18581000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>19462000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>18114000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>18087000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17368000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>19893000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>19354000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>20563000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>17890000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>18206000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>17251000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>17300000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>18066000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>28719000</v>
+      </c>
+      <c r="E60" s="3">
         <v>27252000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>24896000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>25640000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>24150000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>25915000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>23238000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>26257000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24262000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27268000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26991000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>25331000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>25937000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22088000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>24597000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>31712000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>27913000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>29479000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>26414000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>27035000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>28642000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>35364000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>29284000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>27583000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>22718000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>22708000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>23217000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6663000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7637000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7629000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8416000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8418000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8969000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8996000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9018000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9532000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9554000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9564000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>11578000</v>
       </c>
       <c r="O61" s="3">
         <v>11578000</v>
       </c>
       <c r="P61" s="3">
+        <v>11578000</v>
+      </c>
+      <c r="Q61" s="3">
         <v>14494000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14497000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14475000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15921000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>15893000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>18323000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>20331000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>20336000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>25625000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>25684000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>25725000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>28222000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>30471000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>30634000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19852000</v>
+      </c>
+      <c r="E62" s="3">
         <v>19477000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20257000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20173000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>19829000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19882000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>21046000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>20947000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>19897000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>19658000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>20291000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>20024000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18171000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>18311000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>18975000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>18035000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16649000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16301000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>16844000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>18214000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>18369000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>18539000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>10004000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>10373000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>9628000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>9251000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>9023000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4882,8 +5030,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4965,8 +5116,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5048,91 +5202,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>55234000</v>
+      </c>
+      <c r="E66" s="3">
         <v>54366000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>52782000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>54229000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>52397000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>54766000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>53280000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>56222000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>53691000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>56480000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>56846000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>56933000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>55686000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>54893000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>58069000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>64222000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>60483000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>61673000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>61581000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>65580000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>67347000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>79528000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>64972000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>63681000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>60568000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>62437000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>62881000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5162,8 +5322,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5245,8 +5406,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5328,8 +5492,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5411,8 +5578,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5494,91 +5664,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>262000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-364000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-594000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1319000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-724000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2006000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>553000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-654000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1456000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2351000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2756000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2763000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3874000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4384000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5083000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5903000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2877000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>538000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3169000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1233000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3709000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7364000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>20647000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>20838000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>20721000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>20027000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>19694000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5660,8 +5836,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5743,8 +5922,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5826,91 +6008,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>42295000</v>
+      </c>
+      <c r="E76" s="3">
         <v>41474000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>40272000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>39773000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>40400000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>39496000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>42701000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>41275000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>40205000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>39121000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>38157000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>37920000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>35708000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>35533000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>34423000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>33571000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36804000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>40789000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>43848000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>43204000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>46661000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>51982000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>65550000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>66137000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>65382000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>63811000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>63406000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5992,179 +6180,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45045</v>
+      </c>
+      <c r="E80" s="2">
         <v>44954</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44863</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44772</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44590</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44499</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44317</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44219</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44128</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44037</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43946</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43764</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43673</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43582</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43491</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43400</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43309</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43218</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43127</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43036</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42945</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42854</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42763</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3212000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2773000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2670000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2815000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3044000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2973000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2980000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3009000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2863000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2545000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2174000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2636000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2774000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2878000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2926000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2206000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3044000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2822000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3549000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3803000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2691000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-8778000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2394000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2424000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2515000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2348000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6194,91 +6391,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>451000</v>
+      </c>
+      <c r="E83" s="3">
         <v>438000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>415000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>430000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>478000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>516000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>533000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>489000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>486000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>436000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>451000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>444000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>446000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>457000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>461000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>464000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>481000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>487000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>465000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>516000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>564000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>546000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>566000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>578000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>560000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>549000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6360,8 +6561,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6443,8 +6647,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6526,8 +6733,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6609,8 +6819,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6692,91 +6905,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5219000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4739000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3962000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3677000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3661000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2461000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3427000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4504000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3880000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2974000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4096000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3802000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4237000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3800000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3587000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3942000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4329000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3797000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3763000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4100000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2416000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4070000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3080000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>4001000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3373000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3772000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2730000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6806,91 +7025,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-270000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-170000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-176000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-139000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-106000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-110000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-122000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-162000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-172000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-187000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-171000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-208000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-171000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-189000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-202000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-208000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-228000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-261000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-212000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-214000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-241000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-211000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-168000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-208000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-230000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-251000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-275000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6972,8 +7195,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7055,91 +7281,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2594000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-494000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-799000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>869000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>653000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1051000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1020000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>348000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3105000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>182000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2710000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>499000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>236000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>843000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1922000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2689000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>5606000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>3867000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2675000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>8069000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>5760000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>3990000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2495000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>695000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1710000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>418000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-5396000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7169,91 +7401,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1560000</v>
+        <v>-1593000</v>
       </c>
       <c r="E96" s="3">
         <v>-1560000</v>
       </c>
       <c r="F96" s="3">
+        <v>-1560000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1567000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1555000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1541000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1561000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1562000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1560000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1521000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1520000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1525000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1519000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-1486000</v>
       </c>
       <c r="Q96" s="3">
         <v>-1486000</v>
       </c>
       <c r="R96" s="3">
+        <v>-1486000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1490000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1519000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1470000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1500000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1535000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1572000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1425000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1436000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1448000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1451000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-1304000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-1308000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7335,8 +7571,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7418,8 +7657,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7501,105 +7743,111 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3495000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2626000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2855000</v>
       </c>
-      <c r="F100" s="3">
-        <v>-3496000</v>
-      </c>
       <c r="G100" s="3">
-        <v>-4097000</v>
+        <v>-3618000</v>
       </c>
       <c r="H100" s="3">
+        <v>-3975000</v>
+      </c>
+      <c r="I100" s="3">
         <v>-4399000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3970000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2269000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5219000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2178000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2859000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2602000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4757000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8668000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5132000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-9541000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6271000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-6945000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-9954000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-19081000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1479000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1250000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1104000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-4445000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1875000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>3618000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="E101" s="3">
         <v>98000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-95000</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>24</v>
+      <c r="G101" s="3">
+        <v>-58000</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>24</v>
@@ -7610,8 +7858,8 @@
       <c r="J101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -7667,87 +7915,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-963000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1717000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>213000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>870000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>217000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-887000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1563000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2583000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4444000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>978000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-987000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1442000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1871000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-114000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3159000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1499000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>394000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1393000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-507000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2215000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-10905000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>6581000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-665000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>3592000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-2782000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>2315000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>952000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CSCO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,366 +665,379 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E7" s="2">
         <v>45045</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44954</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44863</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44772</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44590</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44499</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44317</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44219</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44128</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44037</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43946</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43764</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43673</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43582</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43491</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43400</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43309</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43218</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43127</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43036</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42945</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42854</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42763</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15203000</v>
+      </c>
+      <c r="E8" s="3">
         <v>14571000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13592000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13632000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13102000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12835000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12720000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12900000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13126000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12803000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11960000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11929000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12154000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11983000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12005000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13159000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13428000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12958000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12446000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>13072000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12844000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>12463000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11887000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>12136000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>12133000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>11940000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>11580000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>12352000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5455000</v>
+      </c>
+      <c r="E9" s="3">
         <v>5339000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5165000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5286000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5077000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4714000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4671000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4847000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4782000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4618000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4176000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4348000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4470000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4212000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4241000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4695000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4854000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4785000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4673000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4926000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4922000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4704000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4389000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4709000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4587000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4422000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>4304000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>4468000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9748000</v>
+      </c>
+      <c r="E10" s="3">
         <v>9232000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8427000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8346000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8025000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8121000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8049000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8053000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8344000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8185000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7784000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7581000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7684000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7771000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7764000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8464000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8574000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8173000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7773000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8146000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7922000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>7759000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>7498000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>7427000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>7546000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>7518000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>7276000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>7884000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1055,94 +1068,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1953000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1962000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1855000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1781000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1682000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1708000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1670000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1714000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1713000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1697000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1527000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1612000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1565000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1546000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1570000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1666000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1753000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1659000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1557000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1608000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1626000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1590000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1549000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1567000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1499000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1507000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1508000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>1545000</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1227,94 +1244,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>223000</v>
+      </c>
+      <c r="E14" s="3">
         <v>90000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>246000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>22000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>24000</v>
       </c>
       <c r="K14" s="3">
         <v>24000</v>
       </c>
       <c r="L14" s="3">
+        <v>24000</v>
+      </c>
+      <c r="M14" s="3">
         <v>57000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>230000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>595000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>128000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>127000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>41000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>181000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>29000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>19000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>168000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>65000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>42000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>93000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>103000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>161000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>152000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>70000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>133000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>411000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1322,85 +1345,88 @@
         <v>70000</v>
       </c>
       <c r="E15" s="3">
-        <v>71000</v>
+        <v>70000</v>
       </c>
       <c r="F15" s="3">
         <v>71000</v>
       </c>
       <c r="G15" s="3">
+        <v>71000</v>
+      </c>
+      <c r="H15" s="3">
         <v>73000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>77000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>79000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>84000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>79000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>61000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>39000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>36000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>33000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>34000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>38000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>36000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>38000</v>
-      </c>
-      <c r="T15" s="3">
-        <v>39000</v>
       </c>
       <c r="U15" s="3">
         <v>39000</v>
       </c>
       <c r="V15" s="3">
+        <v>39000</v>
+      </c>
+      <c r="W15" s="3">
         <v>34000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>33000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>67000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>60000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>61000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>58000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>59000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>64000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1428,180 +1454,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>10950000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10625000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10300000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10092000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9668000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9225000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9233000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9462000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9551000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9338000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8737000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9359000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8907000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8569000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8625000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9580000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9738000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9445000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9235000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9267000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9498000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9329000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8814000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9380000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>9099000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>8771000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>8687000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>9475000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>4253000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3946000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3292000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3540000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3434000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3610000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3487000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3438000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3575000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3465000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3223000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2570000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3247000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3414000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3380000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3579000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3690000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3513000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3211000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3805000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3346000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3134000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3073000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2756000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3034000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>3169000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2893000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>2877000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1632,438 +1665,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>329000</v>
+      </c>
+      <c r="E20" s="3">
         <v>120000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>230000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>35000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>75000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>281000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>204000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>308000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>258000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>237000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>145000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>223000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>178000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>162000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>313000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>286000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>220000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>315000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>358000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>325000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>470000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>355000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>406000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>441000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>367000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>242000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>289000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>5004000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4517000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3960000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3990000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3939000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4369000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4207000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4279000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4322000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4188000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3804000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3244000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3869000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4022000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4150000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4326000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4374000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4309000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4056000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4595000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4332000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4053000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>4025000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3763000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3979000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>3971000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>3731000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>3749000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E22" s="3">
         <v>109000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>107000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>93000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>90000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>88000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>89000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>98000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>111000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>113000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>112000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>119000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>132000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>159000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>179000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>206000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>213000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>226000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>221000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>224000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>236000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>247000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>235000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>221000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>220000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>219000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>197000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>4471000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3957000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3415000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3475000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3416000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3801000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3603000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3657000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3735000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3591000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3255000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2681000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3306000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3444000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3534000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3686000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3704000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3615000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3343000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3909000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3592000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3253000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3232000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2962000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3180000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3191000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2963000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>2953000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>513000</v>
+      </c>
+      <c r="E24" s="3">
         <v>745000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>642000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>805000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>601000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>757000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>630000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>677000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>726000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>728000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>710000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>507000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>670000</v>
       </c>
       <c r="P24" s="3">
         <v>670000</v>
       </c>
       <c r="Q24" s="3">
+        <v>670000</v>
+      </c>
+      <c r="R24" s="3">
         <v>656000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>760000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>684000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>571000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>463000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>360000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>489000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>562000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>910000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>568000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>756000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>676000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>615000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>631000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2148,180 +2197,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>3958000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3212000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2773000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2670000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2815000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3044000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2973000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2980000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3009000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2863000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2545000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2174000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2636000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2774000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2878000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2926000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3020000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3044000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2880000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3549000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3103000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2691000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2322000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2394000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2424000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2515000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2348000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>3958000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3212000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2773000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2670000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2815000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3044000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2973000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2980000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3009000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2863000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2545000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2174000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2636000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2774000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2878000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2926000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3020000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3044000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2880000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3549000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3103000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2691000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2322000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2394000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2424000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2515000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>2348000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2406,8 +2464,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2435,8 +2496,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -2456,29 +2517,29 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="3">
         <v>-814000</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-58000</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>700000</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-11100000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>24</v>
@@ -2492,8 +2553,11 @@
       <c r="AD29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2578,8 +2642,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2664,180 +2731,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-329000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-120000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-230000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-35000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-75000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-281000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-204000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-308000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-258000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-237000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-145000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-223000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-178000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-162000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-313000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-286000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-220000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-315000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-358000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-325000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-470000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-355000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-406000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-441000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-367000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-242000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-289000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-273000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3958000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3212000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2773000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2670000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2815000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3044000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2973000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2980000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3009000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2863000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2545000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2174000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2636000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2774000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2878000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2926000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2206000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3044000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2822000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3549000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3803000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2691000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-8778000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2394000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2424000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2515000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>2348000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2922,185 +2998,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3958000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3212000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2773000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2670000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2815000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3044000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2973000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2980000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3009000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2863000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2545000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2174000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2636000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2774000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2878000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2926000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2206000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3044000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2822000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3549000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3803000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2691000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-8778000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2394000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2424000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2515000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>2348000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E38" s="2">
         <v>45045</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44954</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44863</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44772</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44590</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44499</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44317</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44219</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44128</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44037</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43946</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43764</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43673</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43582</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43491</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43400</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43309</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43218</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43127</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43036</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42945</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42854</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42763</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3131,8 +3216,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3163,782 +3249,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10123000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8044000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9009000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7292000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7079000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6952000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6731000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7619000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9175000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7356000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11800000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10825000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11809000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10367000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8475000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8587000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11750000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10251000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9835000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8410000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8934000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6719000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>17624000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>11043000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>11708000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>8116000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>10898000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>8583000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16023000</v>
+      </c>
+      <c r="E42" s="3">
         <v>15244000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>13052000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>12492000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>12188000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>13156000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>14382000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>15727000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>15343000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>16229000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>18795000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>19190000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>17610000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>18208000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>18587000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>19448000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>21663000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>24392000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>30548000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>34183000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>37614000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>47712000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>56059000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>60545000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>58784000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>59858000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>60947000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>62385000</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10806000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8507400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10194000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10422000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11827000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10887000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11400000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10776000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11546000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10373000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10534000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10285000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11723000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10372000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9157000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9904000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>10586000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8824000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8802000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9387000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>10503000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9142000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8888000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>9244000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>10002000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>9274000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>8954000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>9346000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3644000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3474000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3140000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2664000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2568000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2231000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2059000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1832000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1559000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1579000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1436000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1303000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1282000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1212000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1353000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1344000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1383000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1513000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1701000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1572000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1846000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1900000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1896000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1693000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1616000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1366000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1264000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1176000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2752000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4680600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3120000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3271000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3055000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2755000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2227000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1634000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1489000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1523000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1346000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1386000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1149000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1148000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2481000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2433000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2373000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2331000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2231000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2134000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2940000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1668000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1583000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1555000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1593000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1348000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1329000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1651000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>43348000</v>
+      </c>
+      <c r="E46" s="3">
         <v>39950000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>38515000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>36141000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>36717000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>35981000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>36799000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>37588000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>39112000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>37060000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>43911000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>42989000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>43573000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>41307000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>40053000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>41716000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>47755000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>47311000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>53117000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>55686000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>61837000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>67141000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>86050000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>84080000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>83703000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>79962000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>83392000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>83141000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3483000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3393000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3554000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3618000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4009000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3959000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4024000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4546000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4884000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5068000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5100000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5516000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6992000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6024000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5973000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6048000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>6158000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>6112000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5813000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5884000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>5978000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>5884000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>5895000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>5823000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>5721000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>5518000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>5671000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>5775000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3056000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3064000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2942000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2901000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3000000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3070000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3218000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3356000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3433000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3295000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3360000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3365000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3374000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3465000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3621000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3769000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2789000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2834000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2931000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2956000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3006000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3082000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3113000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3202000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3322000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3395000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>3422000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>3499000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>40353000</v>
+      </c>
+      <c r="E49" s="3">
         <v>40335000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>40522000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>40520000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>40873000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>41263000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>41758000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>42152000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>41787000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>41406000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>36195000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>36116000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>35382000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>35197000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>35518000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>35685000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>35730000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>35942000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>35563000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>36102000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>34258000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>34335000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>32865000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>32910000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>32305000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>32220000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>28939000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>29120000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4023,8 +4137,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4109,94 +4226,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11612000</v>
+      </c>
+      <c r="E52" s="3">
         <v>10787000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10307000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9874000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9403000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8524000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8463000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8339000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8281000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7067000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7035000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7017000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5532000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5401000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5261000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5274000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5361000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5088000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5038000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4801000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3705000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3566000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3587000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4507000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>4767000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>4855000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>4824000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>4752000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4281,94 +4404,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>101852000</v>
+      </c>
+      <c r="E54" s="3">
         <v>97529000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>95840000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>93054000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>94002000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>92797000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>94262000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>95981000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>97497000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>93896000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>95601000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>95003000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>94853000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>91394000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>90426000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>92492000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>97793000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>97287000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>102462000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>105429000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>108784000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>114008000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>131510000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>130522000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>129818000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>125950000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>126248000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>126287000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4399,8 +4528,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4431,524 +4561,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2313000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2442000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2329000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2316000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2281000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2289000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2101000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2261000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2362000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2440000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1867000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2294000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2218000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2393000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1935000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2016000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2059000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2022000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1655000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1805000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1904000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1552000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1060000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1155000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1385000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1219000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>957000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>996000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1733000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1731000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1250000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1249000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1099000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1000000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2502000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>506000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2508000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2000000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5000000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5002000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3005000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4506000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1499000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4000000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10191000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7777000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9737000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7241000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5238000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7736000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>13741000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>10239000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>7992000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>4248000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>4451000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>4155000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>27263000</v>
+      </c>
+      <c r="E59" s="3">
         <v>24546000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23673000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21331000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>22260000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20861000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21312000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>20471000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21387000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19822000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20401000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19695000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>20108000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19038000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>18654000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>18581000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>19462000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>18114000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>18087000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17368000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>19893000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>19354000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>20563000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>17890000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>18206000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>17251000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>17300000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>18066000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31309000</v>
+      </c>
+      <c r="E60" s="3">
         <v>28719000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27252000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>24896000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>25640000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>24150000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>25915000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23238000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26257000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24262000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>27268000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>26991000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>25331000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>25937000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22088000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>24597000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>31712000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>27913000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>29479000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>26414000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>27035000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>28642000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>35364000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>29284000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>27583000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>22718000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>22708000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>23217000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6658000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6663000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7637000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7629000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8416000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8418000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8969000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8996000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9018000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9532000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9554000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9564000</v>
-      </c>
-      <c r="O61" s="3">
-        <v>11578000</v>
       </c>
       <c r="P61" s="3">
         <v>11578000</v>
       </c>
       <c r="Q61" s="3">
+        <v>11578000</v>
+      </c>
+      <c r="R61" s="3">
         <v>14494000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14497000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14475000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>15921000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>15893000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>18323000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>20331000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>20336000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>25625000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>25684000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>25725000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>28222000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>30471000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>30634000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19532000</v>
+      </c>
+      <c r="E62" s="3">
         <v>19852000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19477000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20257000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>20173000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19829000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>19882000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>21046000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20947000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>19897000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>19658000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>20291000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>20024000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>18171000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>18311000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>18975000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>18035000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16649000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>16301000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>16844000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>18214000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>18369000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>18539000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>10004000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>10373000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>9628000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>9251000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>9023000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5033,8 +5182,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5119,8 +5271,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5205,94 +5360,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>57499000</v>
+      </c>
+      <c r="E66" s="3">
         <v>55234000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>54366000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>52782000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>54229000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>52397000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>54766000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>53280000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>56222000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>53691000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>56480000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>56846000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>56933000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>55686000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>54893000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>58069000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>64222000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>60483000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>61673000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>61581000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>65580000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>67347000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>79528000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>64972000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>63681000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>60568000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>62437000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>62881000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5323,8 +5484,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5409,8 +5571,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5495,8 +5660,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5581,8 +5749,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5667,94 +5838,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1639000</v>
+      </c>
+      <c r="E72" s="3">
         <v>262000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-364000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-594000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1319000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-724000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2006000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>553000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-654000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1456000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2351000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2756000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2763000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3874000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4384000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5083000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5903000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2877000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>538000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3169000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1233000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3709000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7364000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>20647000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>20838000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>20721000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>20027000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>19694000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5839,8 +6016,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5925,8 +6105,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6011,94 +6194,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>44353000</v>
+      </c>
+      <c r="E76" s="3">
         <v>42295000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>41474000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>40272000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>39773000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>40400000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>39496000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>42701000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>41275000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>40205000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>39121000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>38157000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>37920000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>35708000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>35533000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>34423000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>33571000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>36804000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>40789000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>43848000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>43204000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>46661000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>51982000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>65550000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>66137000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>65382000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>63811000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>63406000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6183,185 +6372,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E80" s="2">
         <v>45045</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44954</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44863</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44772</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44590</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44499</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44317</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44219</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44128</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44037</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43946</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43764</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43673</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43582</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43491</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43400</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43309</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43218</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43127</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43036</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42945</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42854</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42763</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3958000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3212000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2773000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2670000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2815000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3044000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2973000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2980000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3009000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2863000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2545000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2174000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2636000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2774000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2878000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2926000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2206000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3044000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2822000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3549000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3803000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2691000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-8778000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2394000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2424000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2515000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>2348000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6392,94 +6590,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>422000</v>
+      </c>
+      <c r="E83" s="3">
         <v>451000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>438000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>415000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>430000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>478000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>516000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>533000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>489000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>486000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>436000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>451000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>444000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>446000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>457000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>461000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>464000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>481000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>487000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>465000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>516000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>564000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>546000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>566000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>578000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>560000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>549000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6564,8 +6766,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6650,8 +6855,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6736,8 +6944,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6822,8 +7033,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6908,94 +7122,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5966000</v>
+      </c>
+      <c r="E89" s="3">
         <v>5219000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4739000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3962000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3677000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3661000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2461000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3427000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4504000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3880000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2974000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4096000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3802000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4237000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3800000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3587000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3942000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4329000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3797000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3763000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4100000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2416000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4070000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3080000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>4001000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3373000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>3772000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>2730000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7026,94 +7246,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-233000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-270000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-170000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-176000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-139000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-106000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-110000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-122000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-162000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-172000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-187000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-171000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-208000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-171000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-189000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-202000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-208000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-228000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-261000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-212000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-214000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-241000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-211000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-168000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-208000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-230000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-251000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-275000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7198,8 +7422,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7284,94 +7511,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1220000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2594000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-494000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-799000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>869000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>653000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1051000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1020000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>348000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3105000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>182000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2710000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>499000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>236000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>843000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1922000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2689000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>5606000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>3867000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2675000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>8069000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>5760000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>3990000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2495000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>695000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1710000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>418000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-5396000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7402,94 +7635,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1589000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1593000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-1560000</v>
       </c>
       <c r="F96" s="3">
         <v>-1560000</v>
       </c>
       <c r="G96" s="3">
+        <v>-1560000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1567000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1555000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1541000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1561000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1562000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1560000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1521000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1520000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1525000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1519000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-1486000</v>
       </c>
       <c r="R96" s="3">
         <v>-1486000</v>
       </c>
       <c r="S96" s="3">
+        <v>-1486000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1490000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1519000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1470000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1500000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1535000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1572000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1425000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1436000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1448000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-1451000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-1304000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-1308000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7574,8 +7811,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7660,8 +7900,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7746,111 +7989,117 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2650000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3495000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2626000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2855000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3618000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3975000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4399000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3970000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2269000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5219000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2178000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2859000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2602000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4757000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8668000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5132000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-9541000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-6271000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-6945000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-9954000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-19081000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1479000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1250000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1104000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-4445000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1875000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>3618000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-93000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>98000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-95000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-58000</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>24</v>
@@ -7861,8 +8110,8 @@
       <c r="K101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -7918,90 +8167,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2081000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-963000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1717000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>213000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>870000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>217000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-887000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1563000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2583000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4444000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>978000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-987000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1442000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1871000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-114000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3159000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1499000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>394000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1393000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-507000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2215000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-10905000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>6581000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-665000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>3592000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-2782000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>2315000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>952000</v>
       </c>
     </row>
